--- a/outputs/rpwa1-4.xlsx
+++ b/outputs/rpwa1-4.xlsx
@@ -4,6 +4,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Table 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Table 3" sheetId="3" r:id="rId3"/>
+    <sheet name="Table 4" sheetId="4" r:id="rId4"/>
+    <sheet name="Summary" sheetId="5" r:id="rId5"/>
   </sheets>
 </workbook>
 </file>
@@ -397,72 +401,7762 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="50.83203125" customWidth="1"/>
+    <col min="1" max="1" width="37.83203125" customWidth="1"/>
+    <col min="2" max="2" width="36.83203125" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" customWidth="1"/>
+    <col min="4" max="4" width="50.83203125" customWidth="1"/>
+    <col min="5" max="5" width="25.83203125" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" customWidth="1"/>
+    <col min="7" max="7" width="24.83203125" customWidth="1"/>
+    <col min="8" max="8" width="50.83203125" customWidth="1"/>
+    <col min="9" max="9" width="16.83203125" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" customWidth="1"/>
+    <col min="11" max="11" width="26.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>Text</v>
+        <v>Column</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="G1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="H1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="I1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="J1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="K1" t="str">
+        <v>Form RPWA 1</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>--- Page 1 ---</v>
+        <v/>
+      </c>
+      <c r="B2" t="str">
+        <v/>
+      </c>
+      <c r="C2" t="str">
+        <v/>
+      </c>
+      <c r="D2" t="str">
+        <v/>
+      </c>
+      <c r="E2" t="str">
+        <v>Government of Rajasthan</v>
+      </c>
+      <c r="F2" t="str">
+        <v/>
+      </c>
+      <c r="G2" t="str">
+        <v/>
+      </c>
+      <c r="H2" t="str">
+        <v/>
+      </c>
+      <c r="I2" t="str">
+        <v/>
+      </c>
+      <c r="J2" t="str">
+        <v/>
+      </c>
+      <c r="K2" t="str">
+        <v/>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Government of Rajasthan  Public Works Department, Jaipur  PWD103: X.En.PWD. Electric Div.Udr. (12189)  Jul, 2022 CASH BOOK ( Ver 1.0 )  (Refered to in Rules 99, 100, 104, 117, 118, 128, 158 and 686)  Form RPWA 1  RECEIPT SIDE   PAYMENT SIDE  S No.  Date of Receipt  Voucher No / Receipt No  From whom Received  Amount (Cash)  Classification of Receipt  Date of Payment  Voucher No.   To whom Paid   Payments   Classification of Charges  Cash   Treasury   Total  1   Opening Balance   0.00  2   01-07-2022   TVNo: 17769   Yashaswini Enterprises (AgreeMentNo 122/2020 -21, E/f work in Tehsil Building in Garbhor Distt Rajsamand)  39,364.00   14761: SD2, 9841: I-Tax, 9842: GSTIN Deduction, 4920: Labour-Welfare,  01-07-2022   Tvno: 17769   Yashaswini Enterprises (Wo.No.:1701 , Wo. Date:12/03/2021, AgreeMentNo 122/2020-21, E/f work in Tehsil Building in Garbhor Distt Rajsamand) , Paymanager Bill No: 40324680, Bill Type: Work Order Payments (4 &amp; Final)  39,364   452668.00   4,92,032   4059-80-051-01-01-17-V-P  3   04-07-2022   TVNo: 17984   Neha Electric (AgreeMentNo 65/2019- 20, E/f work in Tehsildar Residence at Devgarh Distt Rajsamand)  21,504.00   16340: SD2, 3443: I-Tax, 1721: Labour-Welfare,  04-07-2022   Tvno: 17984   Neha Electric (Wo.No.:1416 , Wo. Date:04/02/2020, AgreeMentNo 65/2019- 20, E/f work in Tehsildar Residence at Devgarh Distt Rajsamand) , Paymanager Bill No: 40305756, Bill Type: Work Order Payments (First &amp; Final)  21,504   150644.00   1,72,148   4216-01-700-03-90-17-V-P  4   04-07-2022   TVNo: 17985   Neha Electric (AgreeMentNo 15/2020- 21, E/f work in Residence Quarter Tehsildar at Garbhor Distt Rajsamand )  38,129.00   24785: SD2, 5337: I-Tax, 5338: GSTIN Deduction, 2669: Labour-Welfare,  04-07-2022   Tvno: 17985   Neha Electric (Wo.No.:248 , Wo. Date:29/06/2020, AgreeMentNo 15/2020- 21, E/f work in Residence Quarter Tehsildar at Garbhor Distt Rajsamand ) , Paymanager Bill No: 40305762, Bill Type: Work Order Payments (1 Running)  38,129   228722.00   2,66,851   4216-01-700-03-90-17-V-P  Courtesy: https://wam.rajasthan.gov.in (Printed on 9/15/2025 5:02:57 PM) Page 1 of 5</v>
+        <v/>
+      </c>
+      <c r="B3" t="str">
+        <v/>
+      </c>
+      <c r="C3" t="str">
+        <v/>
+      </c>
+      <c r="D3" t="str">
+        <v>Public Works Department, Jaipur</v>
+      </c>
+      <c r="E3" t="str">
+        <v/>
+      </c>
+      <c r="F3" t="str">
+        <v/>
+      </c>
+      <c r="G3" t="str">
+        <v/>
+      </c>
+      <c r="H3" t="str">
+        <v/>
+      </c>
+      <c r="I3" t="str">
+        <v/>
+      </c>
+      <c r="J3" t="str">
+        <v/>
+      </c>
+      <c r="K3" t="str">
+        <v/>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>--- Page 2 ---</v>
+        <v>PWD103: X.En.PWD. Electric Div.Udr.</v>
+      </c>
+      <c r="B4" t="str">
+        <v/>
+      </c>
+      <c r="C4" t="str">
+        <v/>
+      </c>
+      <c r="D4" t="str">
+        <v/>
+      </c>
+      <c r="E4" t="str">
+        <v>CASH BOOK (</v>
+      </c>
+      <c r="F4" t="str">
+        <v>Ver 1.0 )</v>
+      </c>
+      <c r="G4" t="str">
+        <v/>
+      </c>
+      <c r="H4" t="str">
+        <v/>
+      </c>
+      <c r="I4" t="str">
+        <v/>
+      </c>
+      <c r="J4" t="str">
+        <v/>
+      </c>
+      <c r="K4" t="str">
+        <v>Jul, 2022</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>RECEIPT SIDE   PAYMENT SIDE  S No.  Date of Receipt  Voucher No / Receipt No  From whom Received  Amount (Cash)  Classification of Receipt  Date of Payment  Voucher No.   To whom Paid   Payments   Classification of Charges  Cash   Treasury   Total  5   04-07-2022   TVNo: 17986   Neha Electric (AgreeMentNo 15/2020- 21, E/f work in Residence Quarter Tehsildar at Garbhor Distt Rajsamand )  12,765.00   8510: SD2, 1702: I-Tax, 1702: GSTIN Deduction, 851: Labour-Welfare,  04-07-2022   Tvno: 17986   Neha Electric (Wo.No.:248 , Wo. Date:29/06/2020, AgreeMentNo 15/2020- 21, E/f work in Residence Quarter Tehsildar at Garbhor Distt Rajsamand ) , Paymanager Bill No: 40305767, Bill Type: Work Order Payments (2 &amp; Final)  12,765   72334.00   85,099   4216-01-700-03-90-17-V-P  6   04-07-2022   TVNo: 17987   Neha Electric (AgreeMentNo 12/2021- 22, E/f work in Geography Lab at SRK College at Rajsamand)  23,808.00   8928: SD2, 5952: I-Tax, 5952: GSTIN Deduction, 2976: Labour-Welfare,  04-07-2022   Tvno: 17987   Neha Electric (Wo.No.:362 , Wo. Date:30/07/2021, AgreeMentNo 12/2021- 22, E/f work in Geography Lab at SRK College at Rajsamand) , Paymanager Bill No: 40305771, Bill Type: Work Order Payments (First &amp; Final)  23,808   273808.00   2,97,616   8443-00-108-00-00  7   04-07-2022   TVNo: 17988   Seema Electricals (AgreeMentNo 71/2021- 22, SITC of AC in Tehsil Building at Garbhor Distt Rajsamand)  24,113.00   9043: SD2, 6028: I-Tax, 6028: GSTIN Deduction, 3014: Labour-Welfare,  04-07-2022   Tvno: 17988   Seema Electricals (Wo.No.:1632 , Wo. Date:09/03/2022, AgreeMentNo 71/2021- 22, SITC of AC in Tehsil Building at Garbhor Distt Rajsamand) , Paymanager Bill No: 40308359, Bill Type: Work Order Payments (First &amp; Final)  24,113   277304.00   3,01,417   4059-80-051-01-01-17-V-P  8   0.00   06-07-2022   Tvno: 20441   GST Adjustment Bill   12948.00   12,948   8658-00-139-00-00  9   0.00   08-07-2022   Tvno: 18667   Shri Balaji Electricals , Paymanager Bill No: 40343706, Bill Type: HR Payment Less than 30 thousands  4602.00   4,602   8443-00-108-00-00  10   13-07-2022   CrNo: 063386/68   Mitul Enterprises   400.00   0075-00-800-52-01   0.00  11   13-07-2022   CrNo: 063386/69   Neha Electric   400.00   0075-00-800-52-01   0.00  12   13-07-2022   CrNo: 063386/70   Seema Electricals   400.00   0075-00-800-52-01   0.00  13   14-07-2022   CrNo: 71   Medical Relief   12,94,000.00   8443-00-108-00-00   14-07-2022   ChlnNo: 3092250 GRN:64428318  Remittance to Treasury   12,94,000   0.00   12,94,000   8443-00-108-00-00  14   0.00   14-07-2022   ChlnNo: 3094416 GRN:64511896  Remittance to Treasury   1,200   0.00   1,200   0075-00-800-52-01  15   15-07-2022   CrNo: 72   Mitul Enterprises   2,825.00   8443-00-108-00-00   15-07-2022   ChlnNo: 3101401 GRN:64583778  Remittance to Treasury   10,950   0.00   10,950   0075-00-800-52-01, 8443- 00-108-00-00  16   15-07-2022   CrNo: 73   Neha Electric   350.00   8443-00-108-00-00   15-07-2022   ChlnNo: 3198140 GRN:64536247  Remittance to Treasury   2,825   0.00   2,825   8443-00-108-00-00  17   15-07-2022   CrNo: Ch No: 3101401  Neha Electric   500.00   0075-00-800-52-01   15-07-2022   ChlnNo: 3198142 GRN:64536321  Remittance to Treasury   350   0.00   350   8443-00-108-00-00  Courtesy: https://wam.rajasthan.gov.in (Printed on 9/15/2025 5:02:57 PM) Page 2 of 5</v>
+        <v>(12189)</v>
+      </c>
+      <c r="B5" t="str">
+        <v/>
+      </c>
+      <c r="C5" t="str">
+        <v/>
+      </c>
+      <c r="D5" t="str">
+        <v/>
+      </c>
+      <c r="E5" t="str">
+        <v/>
+      </c>
+      <c r="F5" t="str">
+        <v/>
+      </c>
+      <c r="G5" t="str">
+        <v/>
+      </c>
+      <c r="H5" t="str">
+        <v/>
+      </c>
+      <c r="I5" t="str">
+        <v/>
+      </c>
+      <c r="J5" t="str">
+        <v/>
+      </c>
+      <c r="K5" t="str">
+        <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>--- Page 3 ---</v>
+        <v/>
+      </c>
+      <c r="B6" t="str">
+        <v/>
+      </c>
+      <c r="C6" t="str">
+        <v/>
+      </c>
+      <c r="D6" t="str">
+        <v>(Refered to in Rules 99, 100, 104, 117, 118, 128, 158 and 686)</v>
+      </c>
+      <c r="E6" t="str">
+        <v/>
+      </c>
+      <c r="F6" t="str">
+        <v/>
+      </c>
+      <c r="G6" t="str">
+        <v/>
+      </c>
+      <c r="H6" t="str">
+        <v/>
+      </c>
+      <c r="I6" t="str">
+        <v/>
+      </c>
+      <c r="J6" t="str">
+        <v/>
+      </c>
+      <c r="K6" t="str">
+        <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>RECEIPT SIDE   PAYMENT SIDE  S No.  Date of Receipt  Voucher No / Receipt No  From whom Received  Amount (Cash)  Classification of Receipt  Date of Payment  Voucher No.   To whom Paid   Payments   Classification of Charges  Cash   Treasury   Total  18   15-07-2022   CrNo: Ch No: 3101401  Neha Electric   10,450.00   8443-00-108-00-00   15-07-2022   Tvno: 19677   BHARTI KASERA , Paymanager Bill No: 40455704, Bill Type: HR Payment Less than 30 thousands  8480.00   8,480   4059-80-051-01-01-17-V-P  19   15-07-2022   TVNo: 19678   Mitul Enterprises (AgreeMentNo 15/2021- 22, Supply and Providing wireman for Elect mtc in Various Residence and Non Residence building Udaipur)  863.00   431: I-Tax, 432: GSTIN Deduction,  15-07-2022   Tvno: 19678   Mitul Enterprises (Wo.No.:347 , Wo. Date:30/07/2021, AgreeMentNo 15/2021- 22, Supply and Providing wireman for Elect mtc in Various Residence and Non Residence building Udaipur) , Paymanager Bill No: 40456274, Bill Type: Work Order Payments (5 Running)  863   20696.00   21,559   2059-80-053-01-01-21-V-P  20   15-07-2022   TVNo: 19679   Vikas Enterprises (AgreeMentNo 29/2021- 22, Supply of experienced wireman Electricians for day to day maintenance for MB hospital and its associates building Udaipur)  971.00   485: I-Tax, 486: GSTIN Deduction,  15-07-2022   Tvno: 19679   Vikas Enterprises (Wo.No.:531 , Wo. Date:01/09/2021, AgreeMentNo 29/2021- 22, Supply of experienced wireman Electricians for day to day maintenance for MB hospital and its associates building Udaipur) , Paymanager Bill No: 40456334, Bill Type: Work Order Payments (5 Running)  971   23261.00   24,232   8443-00-108-00-00  21   15-07-2022   TVNo: 19680   Dainik Pukar   43.00   29: I-Tax, 14: Patrakar- Kalyan,  15-07-2022   Tvno: 19680   Dainik Pukar , Paymanager Bill No: 40456376, Bill Type: HR Payment Less than 30 thousands  43   1395.00   1,438   8443-00-108-00-00  22   15-07-2022   TVNo: 19681   Dainik Pukar   45.00   30: I-Tax, 15: Patrakar- Kalyan,  15-07-2022   Tvno: 19681   Dainik Pukar , Paymanager Bill No: 40456507, Bill Type: HR Payment (Contingency/Misc)  45   1475.00   1,520   8443-00-108-00-00  23   18-07-2022   CrNo: 74   Seema Electricals   2,485.00   8443-00-108-00-00   18-07-2022   ChlnNo: 3155630 GRN:64660268  Remittance to Treasury   19,700   0.00   19,700   0075-00-800-52-01, 8443- 00-108-00-00  24   18-07-2022   CrNo: 75   Seema Electricals   575.00   8443-00-108-00-00   18-07-2022   ChlnNo: 3165977 GRN:64651008  Remittance to Treasury   21,420   0.00   21,420   0075-00-800-52-01, 8443- 00-108-00-00  25   18-07-2022   CrNo: 76   Neha Electric   2,485.00   8443-00-108-00-00   18-07-2022   ChlnNo: 3172756 GRN:64651687  Remittance to Treasury   19,700   0.00   19,700   0075-00-800-52-01, 8443- 00-108-00-00  26   18-07-2022   CrNo: Ch No: 3155630  Technoid Systems Solution  500.00   0075-00-800-52-01   18-07-2022   ChlnNo: 3173244 GRN:64625299  Remittance to Treasury   10,900   0.00   10,900   0075-00-800-52-01, 8443- 00-108-00-00  27   18-07-2022   CrNo: Ch No: 3155630  Technoid Systems Solution  19,200.00   8443-00-108-00-00   18-07-2022   ChlnNo: 3175155 GRN:64656670  Remittance to Treasury   5,730   0.00   5,730   0075-00-800-52-01, 8443- 00-108-00-00  28   18-07-2022   CrNo: Ch No: 3165977  Vedant Synergy Pvt Ltd   500.00   0075-00-800-52-01   18-07-2022   ChlnNo: 3181008 GRN:64655679  Remittance to Treasury   5,300   0.00   5,300   0075-00-800-52-01, 8443- 00-108-00-00  29   18-07-2022   CrNo: Ch No: 3165977  Vedant Synergy Pvt Ltd   20,920.00   8443-00-108-00-00   18-07-2022   ChlnNo: 3187338 GRN:64536373  Remittance to Treasury   2,485   0.00   2,485   8443-00-108-00-00  30   18-07-2022   CrNo: Ch No: 3172756  Vedant Synergy Pvt Ltd   500.00   0075-00-800-52-01   18-07-2022   ChlnNo: 3187339 GRN:64536422  Remittance to Treasury   575   0.00   575   8443-00-108-00-00  Courtesy: https://wam.rajasthan.gov.in (Printed on 9/15/2025 5:02:57 PM) Page 3 of 5</v>
+        <v/>
+      </c>
+      <c r="B7" t="str">
+        <v/>
+      </c>
+      <c r="C7" t="str">
+        <v>RECEIPT SIDE</v>
+      </c>
+      <c r="D7" t="str">
+        <v/>
+      </c>
+      <c r="E7" t="str">
+        <v/>
+      </c>
+      <c r="F7" t="str">
+        <v/>
+      </c>
+      <c r="G7" t="str">
+        <v>PAYMENT SIDE</v>
+      </c>
+      <c r="H7" t="str">
+        <v/>
+      </c>
+      <c r="I7" t="str">
+        <v/>
+      </c>
+      <c r="J7" t="str">
+        <v/>
+      </c>
+      <c r="K7" t="str">
+        <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>--- Page 4 ---</v>
+        <v>S Date of</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Voucher No /</v>
+      </c>
+      <c r="C8" t="str">
+        <v>From whom Amount</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Classification of</v>
+      </c>
+      <c r="E8" t="str">
+        <v>Date of</v>
+      </c>
+      <c r="F8" t="str">
+        <v>Voucher No.</v>
+      </c>
+      <c r="G8" t="str">
+        <v>To whom Paid</v>
+      </c>
+      <c r="H8" t="str">
+        <v/>
+      </c>
+      <c r="I8" t="str">
+        <v>Payments</v>
+      </c>
+      <c r="J8" t="str">
+        <v/>
+      </c>
+      <c r="K8" t="str">
+        <v>Classification of</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>RECEIPT SIDE   PAYMENT SIDE  S No.  Date of Receipt  Voucher No / Receipt No  From whom Received  Amount (Cash)  Classification of Receipt  Date of Payment  Voucher No.   To whom Paid   Payments   Classification of Charges  Cash   Treasury   Total  31   18-07-2022   CrNo: Ch No: 3172756  Vedant Synergy Pvt Ltd   19,200.00   8443-00-108-00-00   18-07-2022   ChlnNo: 3187340 GRN:64536480  Remittance to Treasury   2,485   0.00   2,485   8443-00-108-00-00  32   18-07-2022   CrNo: Ch No: 3173244  Seema Electricals   500.00   0075-00-800-52-01   18-07-2022   ChlnNo: 3193437 GRN:64640481  Remittance to Treasury   10,900   0.00   10,900   0075-00-800-52-01, 8443- 00-108-00-00  33   18-07-2022   CrNo: Ch No: 3173244  Seema Electricals   10,400.00   8443-00-108-00-00   18-07-2022   ChlnNo: 3193823 GRN:64651268  Remittance to Treasury   10,900   0.00   10,900   0075-00-800-52-01, 8443- 00-108-00-00  34   18-07-2022   CrNo: Ch No: 3175155  Som Electricals   500.00   0075-00-800-52-01   0.00  35   18-07-2022   CrNo: Ch No: 3175155  Som Electricals   5,230.00   8443-00-108-00-00   0.00  36   18-07-2022   CrNo: Ch No: 3181008  Som Electricals   500.00   0075-00-800-52-01   0.00  37   18-07-2022   CrNo: Ch No: 3181008  Som Electricals   4,800.00   8443-00-108-00-00   0.00  38   18-07-2022   CrNo: Ch No: 3193437  Vikas Enterprises   500.00   0075-00-800-52-01   0.00  39   18-07-2022   CrNo: Ch No: 3193437  Vikas Enterprises   10,400.00   8443-00-108-00-00   0.00  40   18-07-2022   CrNo: Ch No: 3193823  Mitul Enterprises   500.00   0075-00-800-52-01   0.00  41   18-07-2022   CrNo: Ch No: 3193823  Mitul Enterprises   10,400.00   8443-00-108-00-00   0.00  42   0.00   19-07-2022   Tvno: 20033   Neha Electric , Paymanager Bill No: 40540550, Bill Type: Deposit Refund  7674.00   7,674   8443-00-108-00-00  43   0.00   19-07-2022   Tvno: 20034   Shubham Electricals and Maintenance , Paymanager Bill No: 40540552, Bill Type: Deposit Refund  20000.00   20,000   8443-00-108-00-00  44   20-07-2022   TVNo: 20257   Gupta Electricals (AgreeMentNo 43/2021- 22, E/f in Govt College Building Railmagra Rajsamand)  13,316.00   4993: SD2, 3329: I-Tax, 3330: GSTIN Deduction, 1664: Labour-Welfare,  20-07-2022   Tvno: 20257   Gupta Electricals (Wo.No.:878 , Wo. Date:01/12/2021, AgreeMentNo 43/2021- 22, E/f in Govt College Building Railmagra Rajsamand) , Paymanager Bill No: 40456292, Bill Type: Work Order Payments (1 Running)  13,316   153124.00   1,66,440   8443-00-108-00-00  45   0.00   22-07-2022   Tvno: 20580   Neha Electric , Paymanager Bill No: 40540544, Bill Type: Deposit Refund  141661.00   1,41,661   8443-00-108-00-00  46   0.00   22-07-2022   Tvno: 20581   Shubham Electricals and Maintenance , Paymanager Bill No: 40540559, Bill Type: Deposit Refund  133718.00   1,33,718   8443-00-108-00-00  47   27-07-2022   CrNo: 77   Medical Relief   4,43,000.00   8443-00-108-00-00   27-07-2022   ChlnNo: 3463108 GRN:64824399  Remittance to Treasury   4,43,000   0.00   4,43,000   8443-00-108-00-00  48   27-07-2022   CrNo: 78   Medical Relief   12,57,000.00   8443-00-108-00-00   27-07-2022   ChlnNo: 3465337 GRN:64984236  Remittance to Treasury   12,57,000   0.00   12,57,000   8443-00-108-00-00  Courtesy: https://wam.rajasthan.gov.in (Printed on 9/15/2025 5:02:57 PM) Page 4 of 5</v>
+        <v>No. Receipt</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Receipt No</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Received</v>
+      </c>
+      <c r="D9" t="str">
+        <v>(Cash) Receipt</v>
+      </c>
+      <c r="E9" t="str">
+        <v>Payment</v>
+      </c>
+      <c r="F9" t="str">
+        <v/>
+      </c>
+      <c r="G9" t="str">
+        <v/>
+      </c>
+      <c r="H9" t="str">
+        <v/>
+      </c>
+      <c r="I9" t="str">
+        <v/>
+      </c>
+      <c r="J9" t="str">
+        <v/>
+      </c>
+      <c r="K9" t="str">
+        <v>Charges</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>--- Page 5 ---</v>
+        <v/>
+      </c>
+      <c r="B10" t="str">
+        <v/>
+      </c>
+      <c r="C10" t="str">
+        <v/>
+      </c>
+      <c r="D10" t="str">
+        <v/>
+      </c>
+      <c r="E10" t="str">
+        <v/>
+      </c>
+      <c r="F10" t="str">
+        <v/>
+      </c>
+      <c r="G10" t="str">
+        <v/>
+      </c>
+      <c r="H10" t="str">
+        <v>Cash</v>
+      </c>
+      <c r="I10" t="str">
+        <v>Treasury Total</v>
+      </c>
+      <c r="J10" t="str">
+        <v/>
+      </c>
+      <c r="K10" t="str">
+        <v/>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Signature of Sr.DAO/DAO/DA with seal   Signature of DO with seal  (A.L.Verma, Sr.D.A.O.)   (Deepak Pareek, Ee Pwd Elect Dn Udaipur)  RECEIPT SIDE   PAYMENT SIDE  S No.  Date of Receipt  Voucher No / Receipt No  From whom Received  Amount (Cash)  Classification of Receipt  Date of Payment  Voucher No.   To whom Paid   Payments   Classification of Charges  Cash   Treasury   Total  49   0.00   28-07-2022   Tvno: 21209   Vikas Enterprises , Paymanager Bill No: 40749482, Bill Type: Deposit Refund  35576.00   35,576   8443-00-108-00-00  50   0.00   28-07-2022   Tvno: 21210   Anita Khoker , Paymanager Bill No: 40749504, Bill Type: HR Payment Less than 30 thousands  5000.00   5,000   4216-01-700-03-90-17-V-P  51   Closing Balance  3294341.00   3294341.00   2025090.00   5319431.00  Courtesy: https://wam.rajasthan.gov.in (Printed on 9/15/2025 5:02:57 PM) Page 5 of 5</v>
+        <v>1</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Opening Balance</v>
+      </c>
+      <c r="C11" t="str">
+        <v/>
+      </c>
+      <c r="D11" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="E11" t="str">
+        <v/>
+      </c>
+      <c r="F11" t="str">
+        <v/>
+      </c>
+      <c r="G11" t="str">
+        <v/>
+      </c>
+      <c r="H11" t="str">
+        <v/>
+      </c>
+      <c r="I11" t="str">
+        <v/>
+      </c>
+      <c r="J11" t="str">
+        <v/>
+      </c>
+      <c r="K11" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>2 01-07-2022</v>
+      </c>
+      <c r="B12" t="str">
+        <v>TVNo: 17769 Yashaswini Enterprises</v>
+      </c>
+      <c r="C12" t="str">
+        <v/>
+      </c>
+      <c r="D12" t="str">
+        <v>39,364.00 14761: SD2, 9841: I-Tax,</v>
+      </c>
+      <c r="E12" t="str">
+        <v>01-07-2022</v>
+      </c>
+      <c r="F12" t="str">
+        <v>Tvno: 17769</v>
+      </c>
+      <c r="G12" t="str">
+        <v>Yashaswini Enterprises</v>
+      </c>
+      <c r="H12" t="str">
+        <v>39,364</v>
+      </c>
+      <c r="I12" t="str">
+        <v>452668.00</v>
+      </c>
+      <c r="J12" t="str">
+        <v>4,92,032</v>
+      </c>
+      <c r="K12" t="str">
+        <v>4059-80-051-01-01-17-V-P</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v/>
+      </c>
+      <c r="B13" t="str">
+        <v>(AgreeMentNo 122/2020</v>
+      </c>
+      <c r="C13" t="str">
+        <v/>
+      </c>
+      <c r="D13" t="str">
+        <v>9842: GSTIN Deduction,</v>
+      </c>
+      <c r="E13" t="str">
+        <v/>
+      </c>
+      <c r="F13" t="str">
+        <v/>
+      </c>
+      <c r="G13" t="str">
+        <v>(Wo.No.:1701 , Wo.</v>
+      </c>
+      <c r="H13" t="str">
+        <v/>
+      </c>
+      <c r="I13" t="str">
+        <v/>
+      </c>
+      <c r="J13" t="str">
+        <v/>
+      </c>
+      <c r="K13" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v/>
+      </c>
+      <c r="B14" t="str">
+        <v>-21, E/f work in Tehsil</v>
+      </c>
+      <c r="C14" t="str">
+        <v/>
+      </c>
+      <c r="D14" t="str">
+        <v>4920: Labour-Welfare,</v>
+      </c>
+      <c r="E14" t="str">
+        <v/>
+      </c>
+      <c r="F14" t="str">
+        <v/>
+      </c>
+      <c r="G14" t="str">
+        <v>Date:12/03/2021,</v>
+      </c>
+      <c r="H14" t="str">
+        <v/>
+      </c>
+      <c r="I14" t="str">
+        <v/>
+      </c>
+      <c r="J14" t="str">
+        <v/>
+      </c>
+      <c r="K14" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v/>
+      </c>
+      <c r="B15" t="str">
+        <v>Building in Garbhor Distt</v>
+      </c>
+      <c r="C15" t="str">
+        <v/>
+      </c>
+      <c r="D15" t="str">
+        <v/>
+      </c>
+      <c r="E15" t="str">
+        <v/>
+      </c>
+      <c r="F15" t="str">
+        <v/>
+      </c>
+      <c r="G15" t="str">
+        <v>AgreeMentNo</v>
+      </c>
+      <c r="H15" t="str">
+        <v/>
+      </c>
+      <c r="I15" t="str">
+        <v/>
+      </c>
+      <c r="J15" t="str">
+        <v/>
+      </c>
+      <c r="K15" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v/>
+      </c>
+      <c r="B16" t="str">
+        <v>Rajsamand)</v>
+      </c>
+      <c r="C16" t="str">
+        <v/>
+      </c>
+      <c r="D16" t="str">
+        <v/>
+      </c>
+      <c r="E16" t="str">
+        <v/>
+      </c>
+      <c r="F16" t="str">
+        <v/>
+      </c>
+      <c r="G16" t="str">
+        <v>122/2020-21, E/f work</v>
+      </c>
+      <c r="H16" t="str">
+        <v/>
+      </c>
+      <c r="I16" t="str">
+        <v/>
+      </c>
+      <c r="J16" t="str">
+        <v/>
+      </c>
+      <c r="K16" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v/>
+      </c>
+      <c r="B17" t="str">
+        <v/>
+      </c>
+      <c r="C17" t="str">
+        <v/>
+      </c>
+      <c r="D17" t="str">
+        <v/>
+      </c>
+      <c r="E17" t="str">
+        <v/>
+      </c>
+      <c r="F17" t="str">
+        <v/>
+      </c>
+      <c r="G17" t="str">
+        <v>in Tehsil Building in</v>
+      </c>
+      <c r="H17" t="str">
+        <v/>
+      </c>
+      <c r="I17" t="str">
+        <v/>
+      </c>
+      <c r="J17" t="str">
+        <v/>
+      </c>
+      <c r="K17" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v/>
+      </c>
+      <c r="B18" t="str">
+        <v/>
+      </c>
+      <c r="C18" t="str">
+        <v/>
+      </c>
+      <c r="D18" t="str">
+        <v/>
+      </c>
+      <c r="E18" t="str">
+        <v/>
+      </c>
+      <c r="F18" t="str">
+        <v/>
+      </c>
+      <c r="G18" t="str">
+        <v>Garbhor Distt</v>
+      </c>
+      <c r="H18" t="str">
+        <v/>
+      </c>
+      <c r="I18" t="str">
+        <v/>
+      </c>
+      <c r="J18" t="str">
+        <v/>
+      </c>
+      <c r="K18" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v/>
+      </c>
+      <c r="B19" t="str">
+        <v/>
+      </c>
+      <c r="C19" t="str">
+        <v/>
+      </c>
+      <c r="D19" t="str">
+        <v/>
+      </c>
+      <c r="E19" t="str">
+        <v/>
+      </c>
+      <c r="F19" t="str">
+        <v/>
+      </c>
+      <c r="G19" t="str">
+        <v>Rajsamand) ,</v>
+      </c>
+      <c r="H19" t="str">
+        <v/>
+      </c>
+      <c r="I19" t="str">
+        <v/>
+      </c>
+      <c r="J19" t="str">
+        <v/>
+      </c>
+      <c r="K19" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v/>
+      </c>
+      <c r="B20" t="str">
+        <v/>
+      </c>
+      <c r="C20" t="str">
+        <v/>
+      </c>
+      <c r="D20" t="str">
+        <v/>
+      </c>
+      <c r="E20" t="str">
+        <v/>
+      </c>
+      <c r="F20" t="str">
+        <v/>
+      </c>
+      <c r="G20" t="str">
+        <v>Paymanager Bill No:</v>
+      </c>
+      <c r="H20" t="str">
+        <v/>
+      </c>
+      <c r="I20" t="str">
+        <v/>
+      </c>
+      <c r="J20" t="str">
+        <v/>
+      </c>
+      <c r="K20" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v/>
+      </c>
+      <c r="B21" t="str">
+        <v/>
+      </c>
+      <c r="C21" t="str">
+        <v/>
+      </c>
+      <c r="D21" t="str">
+        <v/>
+      </c>
+      <c r="E21" t="str">
+        <v/>
+      </c>
+      <c r="F21" t="str">
+        <v/>
+      </c>
+      <c r="G21" t="str">
+        <v>40324680, Bill Type:</v>
+      </c>
+      <c r="H21" t="str">
+        <v/>
+      </c>
+      <c r="I21" t="str">
+        <v/>
+      </c>
+      <c r="J21" t="str">
+        <v/>
+      </c>
+      <c r="K21" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v/>
+      </c>
+      <c r="B22" t="str">
+        <v/>
+      </c>
+      <c r="C22" t="str">
+        <v/>
+      </c>
+      <c r="D22" t="str">
+        <v/>
+      </c>
+      <c r="E22" t="str">
+        <v/>
+      </c>
+      <c r="F22" t="str">
+        <v/>
+      </c>
+      <c r="G22" t="str">
+        <v>Work Order Payments</v>
+      </c>
+      <c r="H22" t="str">
+        <v/>
+      </c>
+      <c r="I22" t="str">
+        <v/>
+      </c>
+      <c r="J22" t="str">
+        <v/>
+      </c>
+      <c r="K22" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v/>
+      </c>
+      <c r="B23" t="str">
+        <v/>
+      </c>
+      <c r="C23" t="str">
+        <v/>
+      </c>
+      <c r="D23" t="str">
+        <v/>
+      </c>
+      <c r="E23" t="str">
+        <v/>
+      </c>
+      <c r="F23" t="str">
+        <v/>
+      </c>
+      <c r="G23" t="str">
+        <v>(4 &amp; Final)</v>
+      </c>
+      <c r="H23" t="str">
+        <v/>
+      </c>
+      <c r="I23" t="str">
+        <v/>
+      </c>
+      <c r="J23" t="str">
+        <v/>
+      </c>
+      <c r="K23" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>3 04-07-2022</v>
+      </c>
+      <c r="B24" t="str">
+        <v>TVNo: 17984 Neha Electric</v>
+      </c>
+      <c r="C24" t="str">
+        <v/>
+      </c>
+      <c r="D24" t="str">
+        <v>21,504.00 16340: SD2, 3443: I-Tax,</v>
+      </c>
+      <c r="E24" t="str">
+        <v>04-07-2022</v>
+      </c>
+      <c r="F24" t="str">
+        <v>Tvno: 17984</v>
+      </c>
+      <c r="G24" t="str">
+        <v>Neha Electric</v>
+      </c>
+      <c r="H24" t="str">
+        <v>21,504</v>
+      </c>
+      <c r="I24" t="str">
+        <v>150644.00</v>
+      </c>
+      <c r="J24" t="str">
+        <v>1,72,148</v>
+      </c>
+      <c r="K24" t="str">
+        <v>4216-01-700-03-90-17-V-P</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v/>
+      </c>
+      <c r="B25" t="str">
+        <v>(AgreeMentNo 65/2019-</v>
+      </c>
+      <c r="C25" t="str">
+        <v/>
+      </c>
+      <c r="D25" t="str">
+        <v>1721: Labour-Welfare,</v>
+      </c>
+      <c r="E25" t="str">
+        <v/>
+      </c>
+      <c r="F25" t="str">
+        <v/>
+      </c>
+      <c r="G25" t="str">
+        <v>(Wo.No.:1416 , Wo.</v>
+      </c>
+      <c r="H25" t="str">
+        <v/>
+      </c>
+      <c r="I25" t="str">
+        <v/>
+      </c>
+      <c r="J25" t="str">
+        <v/>
+      </c>
+      <c r="K25" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v/>
+      </c>
+      <c r="B26" t="str">
+        <v>20, E/f work in Tehsildar</v>
+      </c>
+      <c r="C26" t="str">
+        <v/>
+      </c>
+      <c r="D26" t="str">
+        <v/>
+      </c>
+      <c r="E26" t="str">
+        <v/>
+      </c>
+      <c r="F26" t="str">
+        <v/>
+      </c>
+      <c r="G26" t="str">
+        <v>Date:04/02/2020,</v>
+      </c>
+      <c r="H26" t="str">
+        <v/>
+      </c>
+      <c r="I26" t="str">
+        <v/>
+      </c>
+      <c r="J26" t="str">
+        <v/>
+      </c>
+      <c r="K26" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v/>
+      </c>
+      <c r="B27" t="str">
+        <v>Residence at Devgarh</v>
+      </c>
+      <c r="C27" t="str">
+        <v/>
+      </c>
+      <c r="D27" t="str">
+        <v/>
+      </c>
+      <c r="E27" t="str">
+        <v/>
+      </c>
+      <c r="F27" t="str">
+        <v/>
+      </c>
+      <c r="G27" t="str">
+        <v>AgreeMentNo 65/2019-</v>
+      </c>
+      <c r="H27" t="str">
+        <v/>
+      </c>
+      <c r="I27" t="str">
+        <v/>
+      </c>
+      <c r="J27" t="str">
+        <v/>
+      </c>
+      <c r="K27" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v/>
+      </c>
+      <c r="B28" t="str">
+        <v>Distt Rajsamand)</v>
+      </c>
+      <c r="C28" t="str">
+        <v/>
+      </c>
+      <c r="D28" t="str">
+        <v/>
+      </c>
+      <c r="E28" t="str">
+        <v/>
+      </c>
+      <c r="F28" t="str">
+        <v/>
+      </c>
+      <c r="G28" t="str">
+        <v>20, E/f work in</v>
+      </c>
+      <c r="H28" t="str">
+        <v/>
+      </c>
+      <c r="I28" t="str">
+        <v/>
+      </c>
+      <c r="J28" t="str">
+        <v/>
+      </c>
+      <c r="K28" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v/>
+      </c>
+      <c r="B29" t="str">
+        <v/>
+      </c>
+      <c r="C29" t="str">
+        <v/>
+      </c>
+      <c r="D29" t="str">
+        <v/>
+      </c>
+      <c r="E29" t="str">
+        <v/>
+      </c>
+      <c r="F29" t="str">
+        <v/>
+      </c>
+      <c r="G29" t="str">
+        <v>Tehsildar Residence at</v>
+      </c>
+      <c r="H29" t="str">
+        <v/>
+      </c>
+      <c r="I29" t="str">
+        <v/>
+      </c>
+      <c r="J29" t="str">
+        <v/>
+      </c>
+      <c r="K29" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v/>
+      </c>
+      <c r="B30" t="str">
+        <v/>
+      </c>
+      <c r="C30" t="str">
+        <v/>
+      </c>
+      <c r="D30" t="str">
+        <v/>
+      </c>
+      <c r="E30" t="str">
+        <v/>
+      </c>
+      <c r="F30" t="str">
+        <v/>
+      </c>
+      <c r="G30" t="str">
+        <v>Devgarh Distt</v>
+      </c>
+      <c r="H30" t="str">
+        <v/>
+      </c>
+      <c r="I30" t="str">
+        <v/>
+      </c>
+      <c r="J30" t="str">
+        <v/>
+      </c>
+      <c r="K30" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v/>
+      </c>
+      <c r="B31" t="str">
+        <v/>
+      </c>
+      <c r="C31" t="str">
+        <v/>
+      </c>
+      <c r="D31" t="str">
+        <v/>
+      </c>
+      <c r="E31" t="str">
+        <v/>
+      </c>
+      <c r="F31" t="str">
+        <v/>
+      </c>
+      <c r="G31" t="str">
+        <v>Rajsamand) ,</v>
+      </c>
+      <c r="H31" t="str">
+        <v/>
+      </c>
+      <c r="I31" t="str">
+        <v/>
+      </c>
+      <c r="J31" t="str">
+        <v/>
+      </c>
+      <c r="K31" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v/>
+      </c>
+      <c r="B32" t="str">
+        <v/>
+      </c>
+      <c r="C32" t="str">
+        <v/>
+      </c>
+      <c r="D32" t="str">
+        <v/>
+      </c>
+      <c r="E32" t="str">
+        <v/>
+      </c>
+      <c r="F32" t="str">
+        <v/>
+      </c>
+      <c r="G32" t="str">
+        <v>Paymanager Bill No:</v>
+      </c>
+      <c r="H32" t="str">
+        <v/>
+      </c>
+      <c r="I32" t="str">
+        <v/>
+      </c>
+      <c r="J32" t="str">
+        <v/>
+      </c>
+      <c r="K32" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v/>
+      </c>
+      <c r="B33" t="str">
+        <v/>
+      </c>
+      <c r="C33" t="str">
+        <v/>
+      </c>
+      <c r="D33" t="str">
+        <v/>
+      </c>
+      <c r="E33" t="str">
+        <v/>
+      </c>
+      <c r="F33" t="str">
+        <v/>
+      </c>
+      <c r="G33" t="str">
+        <v>40305756, Bill Type:</v>
+      </c>
+      <c r="H33" t="str">
+        <v/>
+      </c>
+      <c r="I33" t="str">
+        <v/>
+      </c>
+      <c r="J33" t="str">
+        <v/>
+      </c>
+      <c r="K33" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v/>
+      </c>
+      <c r="B34" t="str">
+        <v/>
+      </c>
+      <c r="C34" t="str">
+        <v/>
+      </c>
+      <c r="D34" t="str">
+        <v/>
+      </c>
+      <c r="E34" t="str">
+        <v/>
+      </c>
+      <c r="F34" t="str">
+        <v/>
+      </c>
+      <c r="G34" t="str">
+        <v>Work Order Payments</v>
+      </c>
+      <c r="H34" t="str">
+        <v/>
+      </c>
+      <c r="I34" t="str">
+        <v/>
+      </c>
+      <c r="J34" t="str">
+        <v/>
+      </c>
+      <c r="K34" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v/>
+      </c>
+      <c r="B35" t="str">
+        <v/>
+      </c>
+      <c r="C35" t="str">
+        <v/>
+      </c>
+      <c r="D35" t="str">
+        <v/>
+      </c>
+      <c r="E35" t="str">
+        <v/>
+      </c>
+      <c r="F35" t="str">
+        <v/>
+      </c>
+      <c r="G35" t="str">
+        <v>(First &amp; Final)</v>
+      </c>
+      <c r="H35" t="str">
+        <v/>
+      </c>
+      <c r="I35" t="str">
+        <v/>
+      </c>
+      <c r="J35" t="str">
+        <v/>
+      </c>
+      <c r="K35" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>4 04-07-2022</v>
+      </c>
+      <c r="B36" t="str">
+        <v>TVNo: 17985 Neha Electric</v>
+      </c>
+      <c r="C36" t="str">
+        <v/>
+      </c>
+      <c r="D36" t="str">
+        <v>38,129.00 24785: SD2, 5337: I-Tax,</v>
+      </c>
+      <c r="E36" t="str">
+        <v>04-07-2022</v>
+      </c>
+      <c r="F36" t="str">
+        <v>Tvno: 17985</v>
+      </c>
+      <c r="G36" t="str">
+        <v>Neha Electric</v>
+      </c>
+      <c r="H36" t="str">
+        <v>38,129</v>
+      </c>
+      <c r="I36" t="str">
+        <v>228722.00</v>
+      </c>
+      <c r="J36" t="str">
+        <v>2,66,851</v>
+      </c>
+      <c r="K36" t="str">
+        <v>4216-01-700-03-90-17-V-P</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v/>
+      </c>
+      <c r="B37" t="str">
+        <v>(AgreeMentNo 15/2020-</v>
+      </c>
+      <c r="C37" t="str">
+        <v/>
+      </c>
+      <c r="D37" t="str">
+        <v>5338: GSTIN Deduction,</v>
+      </c>
+      <c r="E37" t="str">
+        <v/>
+      </c>
+      <c r="F37" t="str">
+        <v/>
+      </c>
+      <c r="G37" t="str">
+        <v>(Wo.No.:248 , Wo.</v>
+      </c>
+      <c r="H37" t="str">
+        <v/>
+      </c>
+      <c r="I37" t="str">
+        <v/>
+      </c>
+      <c r="J37" t="str">
+        <v/>
+      </c>
+      <c r="K37" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v/>
+      </c>
+      <c r="B38" t="str">
+        <v>21, E/f work in</v>
+      </c>
+      <c r="C38" t="str">
+        <v/>
+      </c>
+      <c r="D38" t="str">
+        <v>2669: Labour-Welfare,</v>
+      </c>
+      <c r="E38" t="str">
+        <v/>
+      </c>
+      <c r="F38" t="str">
+        <v/>
+      </c>
+      <c r="G38" t="str">
+        <v>Date:29/06/2020,</v>
+      </c>
+      <c r="H38" t="str">
+        <v/>
+      </c>
+      <c r="I38" t="str">
+        <v/>
+      </c>
+      <c r="J38" t="str">
+        <v/>
+      </c>
+      <c r="K38" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v/>
+      </c>
+      <c r="B39" t="str">
+        <v>Residence Quarter</v>
+      </c>
+      <c r="C39" t="str">
+        <v/>
+      </c>
+      <c r="D39" t="str">
+        <v/>
+      </c>
+      <c r="E39" t="str">
+        <v/>
+      </c>
+      <c r="F39" t="str">
+        <v/>
+      </c>
+      <c r="G39" t="str">
+        <v>AgreeMentNo 15/2020-</v>
+      </c>
+      <c r="H39" t="str">
+        <v/>
+      </c>
+      <c r="I39" t="str">
+        <v/>
+      </c>
+      <c r="J39" t="str">
+        <v/>
+      </c>
+      <c r="K39" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v/>
+      </c>
+      <c r="B40" t="str">
+        <v>Tehsildar at Garbhor</v>
+      </c>
+      <c r="C40" t="str">
+        <v/>
+      </c>
+      <c r="D40" t="str">
+        <v/>
+      </c>
+      <c r="E40" t="str">
+        <v/>
+      </c>
+      <c r="F40" t="str">
+        <v/>
+      </c>
+      <c r="G40" t="str">
+        <v>21, E/f work in</v>
+      </c>
+      <c r="H40" t="str">
+        <v/>
+      </c>
+      <c r="I40" t="str">
+        <v/>
+      </c>
+      <c r="J40" t="str">
+        <v/>
+      </c>
+      <c r="K40" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v/>
+      </c>
+      <c r="B41" t="str">
+        <v>Distt Rajsamand )</v>
+      </c>
+      <c r="C41" t="str">
+        <v/>
+      </c>
+      <c r="D41" t="str">
+        <v/>
+      </c>
+      <c r="E41" t="str">
+        <v/>
+      </c>
+      <c r="F41" t="str">
+        <v/>
+      </c>
+      <c r="G41" t="str">
+        <v>Residence Quarter</v>
+      </c>
+      <c r="H41" t="str">
+        <v/>
+      </c>
+      <c r="I41" t="str">
+        <v/>
+      </c>
+      <c r="J41" t="str">
+        <v/>
+      </c>
+      <c r="K41" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v/>
+      </c>
+      <c r="B42" t="str">
+        <v/>
+      </c>
+      <c r="C42" t="str">
+        <v/>
+      </c>
+      <c r="D42" t="str">
+        <v/>
+      </c>
+      <c r="E42" t="str">
+        <v/>
+      </c>
+      <c r="F42" t="str">
+        <v/>
+      </c>
+      <c r="G42" t="str">
+        <v>Tehsildar at Garbhor</v>
+      </c>
+      <c r="H42" t="str">
+        <v/>
+      </c>
+      <c r="I42" t="str">
+        <v/>
+      </c>
+      <c r="J42" t="str">
+        <v/>
+      </c>
+      <c r="K42" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v/>
+      </c>
+      <c r="B43" t="str">
+        <v/>
+      </c>
+      <c r="C43" t="str">
+        <v/>
+      </c>
+      <c r="D43" t="str">
+        <v/>
+      </c>
+      <c r="E43" t="str">
+        <v/>
+      </c>
+      <c r="F43" t="str">
+        <v/>
+      </c>
+      <c r="G43" t="str">
+        <v>Distt Rajsamand ) ,</v>
+      </c>
+      <c r="H43" t="str">
+        <v/>
+      </c>
+      <c r="I43" t="str">
+        <v/>
+      </c>
+      <c r="J43" t="str">
+        <v/>
+      </c>
+      <c r="K43" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v/>
+      </c>
+      <c r="B44" t="str">
+        <v/>
+      </c>
+      <c r="C44" t="str">
+        <v/>
+      </c>
+      <c r="D44" t="str">
+        <v/>
+      </c>
+      <c r="E44" t="str">
+        <v/>
+      </c>
+      <c r="F44" t="str">
+        <v/>
+      </c>
+      <c r="G44" t="str">
+        <v>Paymanager Bill No:</v>
+      </c>
+      <c r="H44" t="str">
+        <v/>
+      </c>
+      <c r="I44" t="str">
+        <v/>
+      </c>
+      <c r="J44" t="str">
+        <v/>
+      </c>
+      <c r="K44" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v/>
+      </c>
+      <c r="B45" t="str">
+        <v/>
+      </c>
+      <c r="C45" t="str">
+        <v/>
+      </c>
+      <c r="D45" t="str">
+        <v/>
+      </c>
+      <c r="E45" t="str">
+        <v/>
+      </c>
+      <c r="F45" t="str">
+        <v/>
+      </c>
+      <c r="G45" t="str">
+        <v>40305762, Bill Type:</v>
+      </c>
+      <c r="H45" t="str">
+        <v/>
+      </c>
+      <c r="I45" t="str">
+        <v/>
+      </c>
+      <c r="J45" t="str">
+        <v/>
+      </c>
+      <c r="K45" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v/>
+      </c>
+      <c r="B46" t="str">
+        <v/>
+      </c>
+      <c r="C46" t="str">
+        <v/>
+      </c>
+      <c r="D46" t="str">
+        <v/>
+      </c>
+      <c r="E46" t="str">
+        <v/>
+      </c>
+      <c r="F46" t="str">
+        <v/>
+      </c>
+      <c r="G46" t="str">
+        <v>Work Order Payments</v>
+      </c>
+      <c r="H46" t="str">
+        <v/>
+      </c>
+      <c r="I46" t="str">
+        <v/>
+      </c>
+      <c r="J46" t="str">
+        <v/>
+      </c>
+      <c r="K46" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v/>
+      </c>
+      <c r="B47" t="str">
+        <v/>
+      </c>
+      <c r="C47" t="str">
+        <v/>
+      </c>
+      <c r="D47" t="str">
+        <v/>
+      </c>
+      <c r="E47" t="str">
+        <v/>
+      </c>
+      <c r="F47" t="str">
+        <v/>
+      </c>
+      <c r="G47" t="str">
+        <v>(1 Running)</v>
+      </c>
+      <c r="H47" t="str">
+        <v/>
+      </c>
+      <c r="I47" t="str">
+        <v/>
+      </c>
+      <c r="J47" t="str">
+        <v/>
+      </c>
+      <c r="K47" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>Page 1 of 5</v>
+      </c>
+      <c r="B48" t="str">
+        <v/>
+      </c>
+      <c r="C48" t="str">
+        <v/>
+      </c>
+      <c r="D48" t="str">
+        <v/>
+      </c>
+      <c r="E48" t="str">
+        <v/>
+      </c>
+      <c r="F48" t="str">
+        <v/>
+      </c>
+      <c r="G48" t="str">
+        <v/>
+      </c>
+      <c r="H48" t="str">
+        <v>Courtesy: https://wam.rajasthan.gov.in (Printed on 9/15/2025 5:02:57 PM)</v>
+      </c>
+      <c r="I48" t="str">
+        <v/>
+      </c>
+      <c r="J48" t="str">
+        <v/>
+      </c>
+      <c r="K48" t="str">
+        <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:A11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K48"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <cols>
+    <col min="1" max="1" width="15.83203125" customWidth="1"/>
+    <col min="2" max="2" width="35.83203125" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" customWidth="1"/>
+    <col min="4" max="4" width="35.83203125" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" customWidth="1"/>
+    <col min="6" max="6" width="40.83203125" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" customWidth="1"/>
+    <col min="8" max="8" width="50.83203125" customWidth="1"/>
+    <col min="9" max="9" width="35.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="C1" t="str">
+        <v>RECEIPT SIDE</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="G1" t="str">
+        <v>PAYMENT SIDE</v>
+      </c>
+      <c r="H1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="I1" t="str">
+        <v>Column</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>S Date of</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Voucher No /</v>
+      </c>
+      <c r="C2" t="str">
+        <v>From whom</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Amount Classification of</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Date of</v>
+      </c>
+      <c r="F2" t="str">
+        <v>Voucher No.</v>
+      </c>
+      <c r="G2" t="str">
+        <v>To whom Paid</v>
+      </c>
+      <c r="H2" t="str">
+        <v>Payments</v>
+      </c>
+      <c r="I2" t="str">
+        <v>Classification of</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>No. Receipt</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Receipt No</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Received</v>
+      </c>
+      <c r="D3" t="str">
+        <v>(Cash) Receipt</v>
+      </c>
+      <c r="E3" t="str">
+        <v>Payment</v>
+      </c>
+      <c r="F3" t="str">
+        <v/>
+      </c>
+      <c r="G3" t="str">
+        <v/>
+      </c>
+      <c r="H3" t="str">
+        <v/>
+      </c>
+      <c r="I3" t="str">
+        <v>Charges</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v/>
+      </c>
+      <c r="B4" t="str">
+        <v/>
+      </c>
+      <c r="C4" t="str">
+        <v/>
+      </c>
+      <c r="D4" t="str">
+        <v/>
+      </c>
+      <c r="E4" t="str">
+        <v/>
+      </c>
+      <c r="F4" t="str">
+        <v/>
+      </c>
+      <c r="G4" t="str">
+        <v/>
+      </c>
+      <c r="H4" t="str">
+        <v>Cash Treasury Total</v>
+      </c>
+      <c r="I4" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>5 04-07-2022</v>
+      </c>
+      <c r="B5" t="str">
+        <v>TVNo: 17986 Neha Electric</v>
+      </c>
+      <c r="C5" t="str">
+        <v/>
+      </c>
+      <c r="D5" t="str">
+        <v>12,765.00 8510: SD2, 1702: I-Tax,</v>
+      </c>
+      <c r="E5" t="str">
+        <v>04-07-2022</v>
+      </c>
+      <c r="F5" t="str">
+        <v>Tvno: 17986 Neha Electric</v>
+      </c>
+      <c r="G5" t="str">
+        <v/>
+      </c>
+      <c r="H5" t="str">
+        <v>12,765 72334.00</v>
+      </c>
+      <c r="I5" t="str">
+        <v>85,099 4216-01-700-03-90-17-V-P</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v/>
+      </c>
+      <c r="B6" t="str">
+        <v>(AgreeMentNo 15/2020-</v>
+      </c>
+      <c r="C6" t="str">
+        <v/>
+      </c>
+      <c r="D6" t="str">
+        <v>1702: GSTIN Deduction,</v>
+      </c>
+      <c r="E6" t="str">
+        <v/>
+      </c>
+      <c r="F6" t="str">
+        <v>(Wo.No.:248 , Wo.</v>
+      </c>
+      <c r="G6" t="str">
+        <v/>
+      </c>
+      <c r="H6" t="str">
+        <v/>
+      </c>
+      <c r="I6" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v/>
+      </c>
+      <c r="B7" t="str">
+        <v>21, E/f work in</v>
+      </c>
+      <c r="C7" t="str">
+        <v/>
+      </c>
+      <c r="D7" t="str">
+        <v>851: Labour-Welfare,</v>
+      </c>
+      <c r="E7" t="str">
+        <v/>
+      </c>
+      <c r="F7" t="str">
+        <v>Date:29/06/2020,</v>
+      </c>
+      <c r="G7" t="str">
+        <v/>
+      </c>
+      <c r="H7" t="str">
+        <v/>
+      </c>
+      <c r="I7" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v/>
+      </c>
+      <c r="B8" t="str">
+        <v>Residence Quarter</v>
+      </c>
+      <c r="C8" t="str">
+        <v/>
+      </c>
+      <c r="D8" t="str">
+        <v/>
+      </c>
+      <c r="E8" t="str">
+        <v/>
+      </c>
+      <c r="F8" t="str">
+        <v>AgreeMentNo 15/2020-</v>
+      </c>
+      <c r="G8" t="str">
+        <v/>
+      </c>
+      <c r="H8" t="str">
+        <v/>
+      </c>
+      <c r="I8" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v/>
+      </c>
+      <c r="B9" t="str">
+        <v>Tehsildar at Garbhor</v>
+      </c>
+      <c r="C9" t="str">
+        <v/>
+      </c>
+      <c r="D9" t="str">
+        <v/>
+      </c>
+      <c r="E9" t="str">
+        <v/>
+      </c>
+      <c r="F9" t="str">
+        <v>21, E/f work in</v>
+      </c>
+      <c r="G9" t="str">
+        <v/>
+      </c>
+      <c r="H9" t="str">
+        <v/>
+      </c>
+      <c r="I9" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v/>
+      </c>
+      <c r="B10" t="str">
+        <v>Distt Rajsamand )</v>
+      </c>
+      <c r="C10" t="str">
+        <v/>
+      </c>
+      <c r="D10" t="str">
+        <v/>
+      </c>
+      <c r="E10" t="str">
+        <v/>
+      </c>
+      <c r="F10" t="str">
+        <v>Residence Quarter</v>
+      </c>
+      <c r="G10" t="str">
+        <v/>
+      </c>
+      <c r="H10" t="str">
+        <v/>
+      </c>
+      <c r="I10" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v/>
+      </c>
+      <c r="B11" t="str">
+        <v/>
+      </c>
+      <c r="C11" t="str">
+        <v/>
+      </c>
+      <c r="D11" t="str">
+        <v/>
+      </c>
+      <c r="E11" t="str">
+        <v/>
+      </c>
+      <c r="F11" t="str">
+        <v>Tehsildar at Garbhor</v>
+      </c>
+      <c r="G11" t="str">
+        <v/>
+      </c>
+      <c r="H11" t="str">
+        <v/>
+      </c>
+      <c r="I11" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v/>
+      </c>
+      <c r="B12" t="str">
+        <v/>
+      </c>
+      <c r="C12" t="str">
+        <v/>
+      </c>
+      <c r="D12" t="str">
+        <v/>
+      </c>
+      <c r="E12" t="str">
+        <v/>
+      </c>
+      <c r="F12" t="str">
+        <v>Distt Rajsamand ) ,</v>
+      </c>
+      <c r="G12" t="str">
+        <v/>
+      </c>
+      <c r="H12" t="str">
+        <v/>
+      </c>
+      <c r="I12" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v/>
+      </c>
+      <c r="B13" t="str">
+        <v/>
+      </c>
+      <c r="C13" t="str">
+        <v/>
+      </c>
+      <c r="D13" t="str">
+        <v/>
+      </c>
+      <c r="E13" t="str">
+        <v/>
+      </c>
+      <c r="F13" t="str">
+        <v>Paymanager Bill No:</v>
+      </c>
+      <c r="G13" t="str">
+        <v/>
+      </c>
+      <c r="H13" t="str">
+        <v/>
+      </c>
+      <c r="I13" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v/>
+      </c>
+      <c r="B14" t="str">
+        <v/>
+      </c>
+      <c r="C14" t="str">
+        <v/>
+      </c>
+      <c r="D14" t="str">
+        <v/>
+      </c>
+      <c r="E14" t="str">
+        <v/>
+      </c>
+      <c r="F14" t="str">
+        <v>40305767, Bill Type:</v>
+      </c>
+      <c r="G14" t="str">
+        <v/>
+      </c>
+      <c r="H14" t="str">
+        <v/>
+      </c>
+      <c r="I14" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v/>
+      </c>
+      <c r="B15" t="str">
+        <v/>
+      </c>
+      <c r="C15" t="str">
+        <v/>
+      </c>
+      <c r="D15" t="str">
+        <v/>
+      </c>
+      <c r="E15" t="str">
+        <v/>
+      </c>
+      <c r="F15" t="str">
+        <v>Work Order Payments</v>
+      </c>
+      <c r="G15" t="str">
+        <v/>
+      </c>
+      <c r="H15" t="str">
+        <v/>
+      </c>
+      <c r="I15" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v/>
+      </c>
+      <c r="B16" t="str">
+        <v/>
+      </c>
+      <c r="C16" t="str">
+        <v/>
+      </c>
+      <c r="D16" t="str">
+        <v/>
+      </c>
+      <c r="E16" t="str">
+        <v/>
+      </c>
+      <c r="F16" t="str">
+        <v>(2 &amp; Final)</v>
+      </c>
+      <c r="G16" t="str">
+        <v/>
+      </c>
+      <c r="H16" t="str">
+        <v/>
+      </c>
+      <c r="I16" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>6 04-07-2022</v>
+      </c>
+      <c r="B17" t="str">
+        <v>TVNo: 17987 Neha Electric</v>
+      </c>
+      <c r="C17" t="str">
+        <v/>
+      </c>
+      <c r="D17" t="str">
+        <v>23,808.00 8928: SD2, 5952: I-Tax,</v>
+      </c>
+      <c r="E17" t="str">
+        <v>04-07-2022</v>
+      </c>
+      <c r="F17" t="str">
+        <v>Tvno: 17987 Neha Electric</v>
+      </c>
+      <c r="G17" t="str">
+        <v/>
+      </c>
+      <c r="H17" t="str">
+        <v>23,808 273808.00</v>
+      </c>
+      <c r="I17" t="str">
+        <v>2,97,616 8443-00-108-00-00</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v/>
+      </c>
+      <c r="B18" t="str">
+        <v>(AgreeMentNo 12/2021-</v>
+      </c>
+      <c r="C18" t="str">
+        <v/>
+      </c>
+      <c r="D18" t="str">
+        <v>5952: GSTIN Deduction,</v>
+      </c>
+      <c r="E18" t="str">
+        <v/>
+      </c>
+      <c r="F18" t="str">
+        <v>(Wo.No.:362 , Wo.</v>
+      </c>
+      <c r="G18" t="str">
+        <v/>
+      </c>
+      <c r="H18" t="str">
+        <v/>
+      </c>
+      <c r="I18" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v/>
+      </c>
+      <c r="B19" t="str">
+        <v>22, E/f work in</v>
+      </c>
+      <c r="C19" t="str">
+        <v/>
+      </c>
+      <c r="D19" t="str">
+        <v>2976: Labour-Welfare,</v>
+      </c>
+      <c r="E19" t="str">
+        <v/>
+      </c>
+      <c r="F19" t="str">
+        <v>Date:30/07/2021,</v>
+      </c>
+      <c r="G19" t="str">
+        <v/>
+      </c>
+      <c r="H19" t="str">
+        <v/>
+      </c>
+      <c r="I19" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v/>
+      </c>
+      <c r="B20" t="str">
+        <v>Geography Lab at SRK</v>
+      </c>
+      <c r="C20" t="str">
+        <v/>
+      </c>
+      <c r="D20" t="str">
+        <v/>
+      </c>
+      <c r="E20" t="str">
+        <v/>
+      </c>
+      <c r="F20" t="str">
+        <v>AgreeMentNo 12/2021-</v>
+      </c>
+      <c r="G20" t="str">
+        <v/>
+      </c>
+      <c r="H20" t="str">
+        <v/>
+      </c>
+      <c r="I20" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v/>
+      </c>
+      <c r="B21" t="str">
+        <v>College at Rajsamand)</v>
+      </c>
+      <c r="C21" t="str">
+        <v/>
+      </c>
+      <c r="D21" t="str">
+        <v/>
+      </c>
+      <c r="E21" t="str">
+        <v/>
+      </c>
+      <c r="F21" t="str">
+        <v>22, E/f work in</v>
+      </c>
+      <c r="G21" t="str">
+        <v/>
+      </c>
+      <c r="H21" t="str">
+        <v/>
+      </c>
+      <c r="I21" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v/>
+      </c>
+      <c r="B22" t="str">
+        <v/>
+      </c>
+      <c r="C22" t="str">
+        <v/>
+      </c>
+      <c r="D22" t="str">
+        <v/>
+      </c>
+      <c r="E22" t="str">
+        <v/>
+      </c>
+      <c r="F22" t="str">
+        <v>Geography Lab at SRK</v>
+      </c>
+      <c r="G22" t="str">
+        <v/>
+      </c>
+      <c r="H22" t="str">
+        <v/>
+      </c>
+      <c r="I22" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v/>
+      </c>
+      <c r="B23" t="str">
+        <v/>
+      </c>
+      <c r="C23" t="str">
+        <v/>
+      </c>
+      <c r="D23" t="str">
+        <v/>
+      </c>
+      <c r="E23" t="str">
+        <v/>
+      </c>
+      <c r="F23" t="str">
+        <v>College at Rajsamand)</v>
+      </c>
+      <c r="G23" t="str">
+        <v/>
+      </c>
+      <c r="H23" t="str">
+        <v/>
+      </c>
+      <c r="I23" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v/>
+      </c>
+      <c r="B24" t="str">
+        <v/>
+      </c>
+      <c r="C24" t="str">
+        <v/>
+      </c>
+      <c r="D24" t="str">
+        <v/>
+      </c>
+      <c r="E24" t="str">
+        <v/>
+      </c>
+      <c r="F24" t="str">
+        <v>, Paymanager Bill No:</v>
+      </c>
+      <c r="G24" t="str">
+        <v/>
+      </c>
+      <c r="H24" t="str">
+        <v/>
+      </c>
+      <c r="I24" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v/>
+      </c>
+      <c r="B25" t="str">
+        <v/>
+      </c>
+      <c r="C25" t="str">
+        <v/>
+      </c>
+      <c r="D25" t="str">
+        <v/>
+      </c>
+      <c r="E25" t="str">
+        <v/>
+      </c>
+      <c r="F25" t="str">
+        <v>40305771, Bill Type:</v>
+      </c>
+      <c r="G25" t="str">
+        <v/>
+      </c>
+      <c r="H25" t="str">
+        <v/>
+      </c>
+      <c r="I25" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v/>
+      </c>
+      <c r="B26" t="str">
+        <v/>
+      </c>
+      <c r="C26" t="str">
+        <v/>
+      </c>
+      <c r="D26" t="str">
+        <v/>
+      </c>
+      <c r="E26" t="str">
+        <v/>
+      </c>
+      <c r="F26" t="str">
+        <v>Work Order Payments</v>
+      </c>
+      <c r="G26" t="str">
+        <v/>
+      </c>
+      <c r="H26" t="str">
+        <v/>
+      </c>
+      <c r="I26" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v/>
+      </c>
+      <c r="B27" t="str">
+        <v/>
+      </c>
+      <c r="C27" t="str">
+        <v/>
+      </c>
+      <c r="D27" t="str">
+        <v/>
+      </c>
+      <c r="E27" t="str">
+        <v/>
+      </c>
+      <c r="F27" t="str">
+        <v>(First &amp; Final)</v>
+      </c>
+      <c r="G27" t="str">
+        <v/>
+      </c>
+      <c r="H27" t="str">
+        <v/>
+      </c>
+      <c r="I27" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>7 04-07-2022</v>
+      </c>
+      <c r="B28" t="str">
+        <v>TVNo: 17988 Seema Electricals</v>
+      </c>
+      <c r="C28" t="str">
+        <v/>
+      </c>
+      <c r="D28" t="str">
+        <v>24,113.00 9043: SD2, 6028: I-Tax,</v>
+      </c>
+      <c r="E28" t="str">
+        <v>04-07-2022</v>
+      </c>
+      <c r="F28" t="str">
+        <v>Tvno: 17988 Seema Electricals</v>
+      </c>
+      <c r="G28" t="str">
+        <v/>
+      </c>
+      <c r="H28" t="str">
+        <v>24,113 277304.00</v>
+      </c>
+      <c r="I28" t="str">
+        <v>3,01,417 4059-80-051-01-01-17-V-P</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v/>
+      </c>
+      <c r="B29" t="str">
+        <v>(AgreeMentNo 71/2021-</v>
+      </c>
+      <c r="C29" t="str">
+        <v/>
+      </c>
+      <c r="D29" t="str">
+        <v>6028: GSTIN Deduction,</v>
+      </c>
+      <c r="E29" t="str">
+        <v/>
+      </c>
+      <c r="F29" t="str">
+        <v>(Wo.No.:1632 , Wo.</v>
+      </c>
+      <c r="G29" t="str">
+        <v/>
+      </c>
+      <c r="H29" t="str">
+        <v/>
+      </c>
+      <c r="I29" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v/>
+      </c>
+      <c r="B30" t="str">
+        <v>22, SITC of AC in Tehsil</v>
+      </c>
+      <c r="C30" t="str">
+        <v/>
+      </c>
+      <c r="D30" t="str">
+        <v>3014: Labour-Welfare,</v>
+      </c>
+      <c r="E30" t="str">
+        <v/>
+      </c>
+      <c r="F30" t="str">
+        <v>Date:09/03/2022,</v>
+      </c>
+      <c r="G30" t="str">
+        <v/>
+      </c>
+      <c r="H30" t="str">
+        <v/>
+      </c>
+      <c r="I30" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v/>
+      </c>
+      <c r="B31" t="str">
+        <v>Building at Garbhor Distt</v>
+      </c>
+      <c r="C31" t="str">
+        <v/>
+      </c>
+      <c r="D31" t="str">
+        <v/>
+      </c>
+      <c r="E31" t="str">
+        <v/>
+      </c>
+      <c r="F31" t="str">
+        <v>AgreeMentNo 71/2021-</v>
+      </c>
+      <c r="G31" t="str">
+        <v/>
+      </c>
+      <c r="H31" t="str">
+        <v/>
+      </c>
+      <c r="I31" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v/>
+      </c>
+      <c r="B32" t="str">
+        <v>Rajsamand)</v>
+      </c>
+      <c r="C32" t="str">
+        <v/>
+      </c>
+      <c r="D32" t="str">
+        <v/>
+      </c>
+      <c r="E32" t="str">
+        <v/>
+      </c>
+      <c r="F32" t="str">
+        <v>22, SITC of AC in</v>
+      </c>
+      <c r="G32" t="str">
+        <v/>
+      </c>
+      <c r="H32" t="str">
+        <v/>
+      </c>
+      <c r="I32" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v/>
+      </c>
+      <c r="B33" t="str">
+        <v/>
+      </c>
+      <c r="C33" t="str">
+        <v/>
+      </c>
+      <c r="D33" t="str">
+        <v/>
+      </c>
+      <c r="E33" t="str">
+        <v/>
+      </c>
+      <c r="F33" t="str">
+        <v>Tehsil Building at</v>
+      </c>
+      <c r="G33" t="str">
+        <v/>
+      </c>
+      <c r="H33" t="str">
+        <v/>
+      </c>
+      <c r="I33" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v/>
+      </c>
+      <c r="B34" t="str">
+        <v/>
+      </c>
+      <c r="C34" t="str">
+        <v/>
+      </c>
+      <c r="D34" t="str">
+        <v/>
+      </c>
+      <c r="E34" t="str">
+        <v/>
+      </c>
+      <c r="F34" t="str">
+        <v>Garbhor Distt</v>
+      </c>
+      <c r="G34" t="str">
+        <v/>
+      </c>
+      <c r="H34" t="str">
+        <v/>
+      </c>
+      <c r="I34" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v/>
+      </c>
+      <c r="B35" t="str">
+        <v/>
+      </c>
+      <c r="C35" t="str">
+        <v/>
+      </c>
+      <c r="D35" t="str">
+        <v/>
+      </c>
+      <c r="E35" t="str">
+        <v/>
+      </c>
+      <c r="F35" t="str">
+        <v>Rajsamand) ,</v>
+      </c>
+      <c r="G35" t="str">
+        <v/>
+      </c>
+      <c r="H35" t="str">
+        <v/>
+      </c>
+      <c r="I35" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v/>
+      </c>
+      <c r="B36" t="str">
+        <v/>
+      </c>
+      <c r="C36" t="str">
+        <v/>
+      </c>
+      <c r="D36" t="str">
+        <v/>
+      </c>
+      <c r="E36" t="str">
+        <v/>
+      </c>
+      <c r="F36" t="str">
+        <v>Paymanager Bill No:</v>
+      </c>
+      <c r="G36" t="str">
+        <v/>
+      </c>
+      <c r="H36" t="str">
+        <v/>
+      </c>
+      <c r="I36" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v/>
+      </c>
+      <c r="B37" t="str">
+        <v/>
+      </c>
+      <c r="C37" t="str">
+        <v/>
+      </c>
+      <c r="D37" t="str">
+        <v/>
+      </c>
+      <c r="E37" t="str">
+        <v/>
+      </c>
+      <c r="F37" t="str">
+        <v>40308359, Bill Type:</v>
+      </c>
+      <c r="G37" t="str">
+        <v/>
+      </c>
+      <c r="H37" t="str">
+        <v/>
+      </c>
+      <c r="I37" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v/>
+      </c>
+      <c r="B38" t="str">
+        <v/>
+      </c>
+      <c r="C38" t="str">
+        <v/>
+      </c>
+      <c r="D38" t="str">
+        <v/>
+      </c>
+      <c r="E38" t="str">
+        <v/>
+      </c>
+      <c r="F38" t="str">
+        <v>Work Order Payments</v>
+      </c>
+      <c r="G38" t="str">
+        <v/>
+      </c>
+      <c r="H38" t="str">
+        <v/>
+      </c>
+      <c r="I38" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v/>
+      </c>
+      <c r="B39" t="str">
+        <v/>
+      </c>
+      <c r="C39" t="str">
+        <v/>
+      </c>
+      <c r="D39" t="str">
+        <v/>
+      </c>
+      <c r="E39" t="str">
+        <v/>
+      </c>
+      <c r="F39" t="str">
+        <v>(First &amp; Final)</v>
+      </c>
+      <c r="G39" t="str">
+        <v/>
+      </c>
+      <c r="H39" t="str">
+        <v/>
+      </c>
+      <c r="I39" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>8</v>
+      </c>
+      <c r="B40" t="str">
+        <v/>
+      </c>
+      <c r="C40" t="str">
+        <v/>
+      </c>
+      <c r="D40" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="E40" t="str">
+        <v>06-07-2022</v>
+      </c>
+      <c r="F40" t="str">
+        <v>Tvno: 20441 GST Adjustment Bill</v>
+      </c>
+      <c r="G40" t="str">
+        <v/>
+      </c>
+      <c r="H40" t="str">
+        <v>12948.00</v>
+      </c>
+      <c r="I40" t="str">
+        <v>12,948 8658-00-139-00-00</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>9</v>
+      </c>
+      <c r="B41" t="str">
+        <v/>
+      </c>
+      <c r="C41" t="str">
+        <v/>
+      </c>
+      <c r="D41" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="E41" t="str">
+        <v>08-07-2022</v>
+      </c>
+      <c r="F41" t="str">
+        <v>Tvno: 18667 Shri Balaji Electricals ,</v>
+      </c>
+      <c r="G41" t="str">
+        <v/>
+      </c>
+      <c r="H41" t="str">
+        <v>4602.00</v>
+      </c>
+      <c r="I41" t="str">
+        <v>4,602 8443-00-108-00-00</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v/>
+      </c>
+      <c r="B42" t="str">
+        <v/>
+      </c>
+      <c r="C42" t="str">
+        <v/>
+      </c>
+      <c r="D42" t="str">
+        <v/>
+      </c>
+      <c r="E42" t="str">
+        <v/>
+      </c>
+      <c r="F42" t="str">
+        <v>Paymanager Bill No:</v>
+      </c>
+      <c r="G42" t="str">
+        <v/>
+      </c>
+      <c r="H42" t="str">
+        <v/>
+      </c>
+      <c r="I42" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v/>
+      </c>
+      <c r="B43" t="str">
+        <v/>
+      </c>
+      <c r="C43" t="str">
+        <v/>
+      </c>
+      <c r="D43" t="str">
+        <v/>
+      </c>
+      <c r="E43" t="str">
+        <v/>
+      </c>
+      <c r="F43" t="str">
+        <v>40343706, Bill Type:</v>
+      </c>
+      <c r="G43" t="str">
+        <v/>
+      </c>
+      <c r="H43" t="str">
+        <v/>
+      </c>
+      <c r="I43" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v/>
+      </c>
+      <c r="B44" t="str">
+        <v/>
+      </c>
+      <c r="C44" t="str">
+        <v/>
+      </c>
+      <c r="D44" t="str">
+        <v/>
+      </c>
+      <c r="E44" t="str">
+        <v/>
+      </c>
+      <c r="F44" t="str">
+        <v>HR Payment Less than</v>
+      </c>
+      <c r="G44" t="str">
+        <v/>
+      </c>
+      <c r="H44" t="str">
+        <v/>
+      </c>
+      <c r="I44" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v/>
+      </c>
+      <c r="B45" t="str">
+        <v/>
+      </c>
+      <c r="C45" t="str">
+        <v/>
+      </c>
+      <c r="D45" t="str">
+        <v/>
+      </c>
+      <c r="E45" t="str">
+        <v/>
+      </c>
+      <c r="F45" t="str">
+        <v>30 thousands</v>
+      </c>
+      <c r="G45" t="str">
+        <v/>
+      </c>
+      <c r="H45" t="str">
+        <v/>
+      </c>
+      <c r="I45" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>10 13-07-2022</v>
+      </c>
+      <c r="B46" t="str">
+        <v>CrNo: 063386/68 Mitul Enterprises</v>
+      </c>
+      <c r="C46" t="str">
+        <v/>
+      </c>
+      <c r="D46" t="str">
+        <v>400.00 0075-00-800-52-01</v>
+      </c>
+      <c r="E46" t="str">
+        <v/>
+      </c>
+      <c r="F46" t="str">
+        <v/>
+      </c>
+      <c r="G46" t="str">
+        <v/>
+      </c>
+      <c r="H46" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="I46" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>11 13-07-2022</v>
+      </c>
+      <c r="B47" t="str">
+        <v>CrNo: 063386/69 Neha Electric</v>
+      </c>
+      <c r="C47" t="str">
+        <v/>
+      </c>
+      <c r="D47" t="str">
+        <v>400.00 0075-00-800-52-01</v>
+      </c>
+      <c r="E47" t="str">
+        <v/>
+      </c>
+      <c r="F47" t="str">
+        <v/>
+      </c>
+      <c r="G47" t="str">
+        <v/>
+      </c>
+      <c r="H47" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="I47" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>12 13-07-2022</v>
+      </c>
+      <c r="B48" t="str">
+        <v>CrNo: 063386/70 Seema Electricals</v>
+      </c>
+      <c r="C48" t="str">
+        <v/>
+      </c>
+      <c r="D48" t="str">
+        <v>400.00 0075-00-800-52-01</v>
+      </c>
+      <c r="E48" t="str">
+        <v/>
+      </c>
+      <c r="F48" t="str">
+        <v/>
+      </c>
+      <c r="G48" t="str">
+        <v/>
+      </c>
+      <c r="H48" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="I48" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>13 14-07-2022</v>
+      </c>
+      <c r="B49" t="str">
+        <v>CrNo: 71 Medical Relief</v>
+      </c>
+      <c r="C49" t="str">
+        <v/>
+      </c>
+      <c r="D49" t="str">
+        <v>12,94,000.00 8443-00-108-00-00</v>
+      </c>
+      <c r="E49" t="str">
+        <v>14-07-2022</v>
+      </c>
+      <c r="F49" t="str">
+        <v>ChlnNo: 3092250 Remittance to Treasury</v>
+      </c>
+      <c r="G49" t="str">
+        <v/>
+      </c>
+      <c r="H49" t="str">
+        <v>12,94,000 0.00</v>
+      </c>
+      <c r="I49" t="str">
+        <v>12,94,000 8443-00-108-00-00</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v/>
+      </c>
+      <c r="B50" t="str">
+        <v/>
+      </c>
+      <c r="C50" t="str">
+        <v/>
+      </c>
+      <c r="D50" t="str">
+        <v/>
+      </c>
+      <c r="E50" t="str">
+        <v/>
+      </c>
+      <c r="F50" t="str">
+        <v>GRN:64428318</v>
+      </c>
+      <c r="G50" t="str">
+        <v/>
+      </c>
+      <c r="H50" t="str">
+        <v/>
+      </c>
+      <c r="I50" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>14</v>
+      </c>
+      <c r="B51" t="str">
+        <v/>
+      </c>
+      <c r="C51" t="str">
+        <v/>
+      </c>
+      <c r="D51" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="E51" t="str">
+        <v>14-07-2022</v>
+      </c>
+      <c r="F51" t="str">
+        <v>ChlnNo: 3094416 Remittance to Treasury</v>
+      </c>
+      <c r="G51" t="str">
+        <v/>
+      </c>
+      <c r="H51" t="str">
+        <v>1,200 0.00</v>
+      </c>
+      <c r="I51" t="str">
+        <v>1,200 0075-00-800-52-01</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v/>
+      </c>
+      <c r="B52" t="str">
+        <v/>
+      </c>
+      <c r="C52" t="str">
+        <v/>
+      </c>
+      <c r="D52" t="str">
+        <v/>
+      </c>
+      <c r="E52" t="str">
+        <v/>
+      </c>
+      <c r="F52" t="str">
+        <v>GRN:64511896</v>
+      </c>
+      <c r="G52" t="str">
+        <v/>
+      </c>
+      <c r="H52" t="str">
+        <v/>
+      </c>
+      <c r="I52" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>15 15-07-2022</v>
+      </c>
+      <c r="B53" t="str">
+        <v>CrNo: 72 Mitul Enterprises</v>
+      </c>
+      <c r="C53" t="str">
+        <v/>
+      </c>
+      <c r="D53" t="str">
+        <v>2,825.00 8443-00-108-00-00</v>
+      </c>
+      <c r="E53" t="str">
+        <v>15-07-2022</v>
+      </c>
+      <c r="F53" t="str">
+        <v>ChlnNo: 3101401 Remittance to Treasury</v>
+      </c>
+      <c r="G53" t="str">
+        <v/>
+      </c>
+      <c r="H53" t="str">
+        <v>10,950 0.00</v>
+      </c>
+      <c r="I53" t="str">
+        <v>10,950 0075-00-800-52-01, 8443-</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v/>
+      </c>
+      <c r="B54" t="str">
+        <v/>
+      </c>
+      <c r="C54" t="str">
+        <v/>
+      </c>
+      <c r="D54" t="str">
+        <v/>
+      </c>
+      <c r="E54" t="str">
+        <v/>
+      </c>
+      <c r="F54" t="str">
+        <v>GRN:64583778</v>
+      </c>
+      <c r="G54" t="str">
+        <v/>
+      </c>
+      <c r="H54" t="str">
+        <v/>
+      </c>
+      <c r="I54" t="str">
+        <v>00-108-00-00</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>16 15-07-2022</v>
+      </c>
+      <c r="B55" t="str">
+        <v>CrNo: 73 Neha Electric</v>
+      </c>
+      <c r="C55" t="str">
+        <v/>
+      </c>
+      <c r="D55" t="str">
+        <v>350.00 8443-00-108-00-00</v>
+      </c>
+      <c r="E55" t="str">
+        <v>15-07-2022</v>
+      </c>
+      <c r="F55" t="str">
+        <v>ChlnNo: 3198140 Remittance to Treasury</v>
+      </c>
+      <c r="G55" t="str">
+        <v/>
+      </c>
+      <c r="H55" t="str">
+        <v>2,825 0.00</v>
+      </c>
+      <c r="I55" t="str">
+        <v>2,825 8443-00-108-00-00</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v/>
+      </c>
+      <c r="B56" t="str">
+        <v/>
+      </c>
+      <c r="C56" t="str">
+        <v/>
+      </c>
+      <c r="D56" t="str">
+        <v/>
+      </c>
+      <c r="E56" t="str">
+        <v/>
+      </c>
+      <c r="F56" t="str">
+        <v>GRN:64536247</v>
+      </c>
+      <c r="G56" t="str">
+        <v/>
+      </c>
+      <c r="H56" t="str">
+        <v/>
+      </c>
+      <c r="I56" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>17 15-07-2022</v>
+      </c>
+      <c r="B57" t="str">
+        <v>CrNo: Ch No: Neha Electric</v>
+      </c>
+      <c r="C57" t="str">
+        <v/>
+      </c>
+      <c r="D57" t="str">
+        <v>500.00 0075-00-800-52-01</v>
+      </c>
+      <c r="E57" t="str">
+        <v>15-07-2022</v>
+      </c>
+      <c r="F57" t="str">
+        <v>ChlnNo: 3198142 Remittance to Treasury</v>
+      </c>
+      <c r="G57" t="str">
+        <v/>
+      </c>
+      <c r="H57" t="str">
+        <v>350 0.00</v>
+      </c>
+      <c r="I57" t="str">
+        <v>350 8443-00-108-00-00</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v/>
+      </c>
+      <c r="B58" t="str">
+        <v>3101401</v>
+      </c>
+      <c r="C58" t="str">
+        <v/>
+      </c>
+      <c r="D58" t="str">
+        <v/>
+      </c>
+      <c r="E58" t="str">
+        <v/>
+      </c>
+      <c r="F58" t="str">
+        <v>GRN:64536321</v>
+      </c>
+      <c r="G58" t="str">
+        <v/>
+      </c>
+      <c r="H58" t="str">
+        <v/>
+      </c>
+      <c r="I58" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>Page 2 of 5</v>
+      </c>
+      <c r="B59" t="str">
+        <v/>
+      </c>
+      <c r="C59" t="str">
+        <v/>
+      </c>
+      <c r="D59" t="str">
+        <v/>
+      </c>
+      <c r="E59" t="str">
+        <v/>
+      </c>
+      <c r="F59" t="str">
+        <v/>
+      </c>
+      <c r="G59" t="str">
+        <v/>
+      </c>
+      <c r="H59" t="str">
+        <v>Courtesy: https://wam.rajasthan.gov.in (Printed on 9/15/2025 5:02:57 PM)</v>
+      </c>
+      <c r="I59" t="str">
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:I59"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <cols>
+    <col min="1" max="1" width="15.83203125" customWidth="1"/>
+    <col min="2" max="2" width="37.83203125" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" customWidth="1"/>
+    <col min="5" max="5" width="26.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" customWidth="1"/>
+    <col min="7" max="7" width="40.83203125" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" customWidth="1"/>
+    <col min="9" max="9" width="50.83203125" customWidth="1"/>
+    <col min="10" max="10" width="33.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="C1" t="str">
+        <v>RECEIPT SIDE</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="G1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="H1" t="str">
+        <v>PAYMENT SIDE</v>
+      </c>
+      <c r="I1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="J1" t="str">
+        <v>Column</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>S Date of</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Voucher No /</v>
+      </c>
+      <c r="C2" t="str">
+        <v>From whom Amount</v>
+      </c>
+      <c r="D2" t="str">
+        <v/>
+      </c>
+      <c r="E2" t="str">
+        <v>Classification of</v>
+      </c>
+      <c r="F2" t="str">
+        <v>Date of</v>
+      </c>
+      <c r="G2" t="str">
+        <v>Voucher No.</v>
+      </c>
+      <c r="H2" t="str">
+        <v>To whom Paid</v>
+      </c>
+      <c r="I2" t="str">
+        <v>Payments</v>
+      </c>
+      <c r="J2" t="str">
+        <v>Classification of</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>No. Receipt</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Receipt No</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Received</v>
+      </c>
+      <c r="D3" t="str">
+        <v>(Cash)</v>
+      </c>
+      <c r="E3" t="str">
+        <v>Receipt</v>
+      </c>
+      <c r="F3" t="str">
+        <v>Payment</v>
+      </c>
+      <c r="G3" t="str">
+        <v/>
+      </c>
+      <c r="H3" t="str">
+        <v/>
+      </c>
+      <c r="I3" t="str">
+        <v/>
+      </c>
+      <c r="J3" t="str">
+        <v>Charges</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v/>
+      </c>
+      <c r="B4" t="str">
+        <v/>
+      </c>
+      <c r="C4" t="str">
+        <v/>
+      </c>
+      <c r="D4" t="str">
+        <v/>
+      </c>
+      <c r="E4" t="str">
+        <v/>
+      </c>
+      <c r="F4" t="str">
+        <v/>
+      </c>
+      <c r="G4" t="str">
+        <v/>
+      </c>
+      <c r="H4" t="str">
+        <v/>
+      </c>
+      <c r="I4" t="str">
+        <v>Cash Treasury Total</v>
+      </c>
+      <c r="J4" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>18 15-07-2022</v>
+      </c>
+      <c r="B5" t="str">
+        <v>CrNo: Ch No: Neha Electric</v>
+      </c>
+      <c r="C5" t="str">
+        <v/>
+      </c>
+      <c r="D5" t="str">
+        <v>10,450.00</v>
+      </c>
+      <c r="E5" t="str">
+        <v>8443-00-108-00-00</v>
+      </c>
+      <c r="F5" t="str">
+        <v>15-07-2022</v>
+      </c>
+      <c r="G5" t="str">
+        <v>Tvno: 19677 BHARTI KASERA ,</v>
+      </c>
+      <c r="H5" t="str">
+        <v/>
+      </c>
+      <c r="I5" t="str">
+        <v>8480.00</v>
+      </c>
+      <c r="J5" t="str">
+        <v>8,480 4059-80-051-01-01-17-V-P</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v/>
+      </c>
+      <c r="B6" t="str">
+        <v>3101401</v>
+      </c>
+      <c r="C6" t="str">
+        <v/>
+      </c>
+      <c r="D6" t="str">
+        <v/>
+      </c>
+      <c r="E6" t="str">
+        <v/>
+      </c>
+      <c r="F6" t="str">
+        <v/>
+      </c>
+      <c r="G6" t="str">
+        <v>Paymanager Bill No:</v>
+      </c>
+      <c r="H6" t="str">
+        <v/>
+      </c>
+      <c r="I6" t="str">
+        <v/>
+      </c>
+      <c r="J6" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v/>
+      </c>
+      <c r="B7" t="str">
+        <v/>
+      </c>
+      <c r="C7" t="str">
+        <v/>
+      </c>
+      <c r="D7" t="str">
+        <v/>
+      </c>
+      <c r="E7" t="str">
+        <v/>
+      </c>
+      <c r="F7" t="str">
+        <v/>
+      </c>
+      <c r="G7" t="str">
+        <v>40455704, Bill Type:</v>
+      </c>
+      <c r="H7" t="str">
+        <v/>
+      </c>
+      <c r="I7" t="str">
+        <v/>
+      </c>
+      <c r="J7" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v/>
+      </c>
+      <c r="B8" t="str">
+        <v/>
+      </c>
+      <c r="C8" t="str">
+        <v/>
+      </c>
+      <c r="D8" t="str">
+        <v/>
+      </c>
+      <c r="E8" t="str">
+        <v/>
+      </c>
+      <c r="F8" t="str">
+        <v/>
+      </c>
+      <c r="G8" t="str">
+        <v>HR Payment Less than</v>
+      </c>
+      <c r="H8" t="str">
+        <v/>
+      </c>
+      <c r="I8" t="str">
+        <v/>
+      </c>
+      <c r="J8" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v/>
+      </c>
+      <c r="B9" t="str">
+        <v/>
+      </c>
+      <c r="C9" t="str">
+        <v/>
+      </c>
+      <c r="D9" t="str">
+        <v/>
+      </c>
+      <c r="E9" t="str">
+        <v/>
+      </c>
+      <c r="F9" t="str">
+        <v/>
+      </c>
+      <c r="G9" t="str">
+        <v>30 thousands</v>
+      </c>
+      <c r="H9" t="str">
+        <v/>
+      </c>
+      <c r="I9" t="str">
+        <v/>
+      </c>
+      <c r="J9" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>19 15-07-2022</v>
+      </c>
+      <c r="B10" t="str">
+        <v>TVNo: 19678 Mitul Enterprises</v>
+      </c>
+      <c r="C10" t="str">
+        <v/>
+      </c>
+      <c r="D10" t="str">
+        <v>863.00</v>
+      </c>
+      <c r="E10" t="str">
+        <v>431: I-Tax, 432: GSTIN</v>
+      </c>
+      <c r="F10" t="str">
+        <v>15-07-2022</v>
+      </c>
+      <c r="G10" t="str">
+        <v>Tvno: 19678 Mitul Enterprises</v>
+      </c>
+      <c r="H10" t="str">
+        <v/>
+      </c>
+      <c r="I10" t="str">
+        <v>863 20696.00</v>
+      </c>
+      <c r="J10" t="str">
+        <v>21,559 2059-80-053-01-01-21-V-P</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v/>
+      </c>
+      <c r="B11" t="str">
+        <v>(AgreeMentNo 15/2021-</v>
+      </c>
+      <c r="C11" t="str">
+        <v/>
+      </c>
+      <c r="D11" t="str">
+        <v/>
+      </c>
+      <c r="E11" t="str">
+        <v>Deduction,</v>
+      </c>
+      <c r="F11" t="str">
+        <v/>
+      </c>
+      <c r="G11" t="str">
+        <v>(Wo.No.:347 , Wo.</v>
+      </c>
+      <c r="H11" t="str">
+        <v/>
+      </c>
+      <c r="I11" t="str">
+        <v/>
+      </c>
+      <c r="J11" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v/>
+      </c>
+      <c r="B12" t="str">
+        <v>22, Supply and Providing</v>
+      </c>
+      <c r="C12" t="str">
+        <v/>
+      </c>
+      <c r="D12" t="str">
+        <v/>
+      </c>
+      <c r="E12" t="str">
+        <v/>
+      </c>
+      <c r="F12" t="str">
+        <v/>
+      </c>
+      <c r="G12" t="str">
+        <v>Date:30/07/2021,</v>
+      </c>
+      <c r="H12" t="str">
+        <v/>
+      </c>
+      <c r="I12" t="str">
+        <v/>
+      </c>
+      <c r="J12" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v/>
+      </c>
+      <c r="B13" t="str">
+        <v>wireman for Elect mtc in</v>
+      </c>
+      <c r="C13" t="str">
+        <v/>
+      </c>
+      <c r="D13" t="str">
+        <v/>
+      </c>
+      <c r="E13" t="str">
+        <v/>
+      </c>
+      <c r="F13" t="str">
+        <v/>
+      </c>
+      <c r="G13" t="str">
+        <v>AgreeMentNo 15/2021-</v>
+      </c>
+      <c r="H13" t="str">
+        <v/>
+      </c>
+      <c r="I13" t="str">
+        <v/>
+      </c>
+      <c r="J13" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v/>
+      </c>
+      <c r="B14" t="str">
+        <v>Various Residence and</v>
+      </c>
+      <c r="C14" t="str">
+        <v/>
+      </c>
+      <c r="D14" t="str">
+        <v/>
+      </c>
+      <c r="E14" t="str">
+        <v/>
+      </c>
+      <c r="F14" t="str">
+        <v/>
+      </c>
+      <c r="G14" t="str">
+        <v>22, Supply and</v>
+      </c>
+      <c r="H14" t="str">
+        <v/>
+      </c>
+      <c r="I14" t="str">
+        <v/>
+      </c>
+      <c r="J14" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v/>
+      </c>
+      <c r="B15" t="str">
+        <v>Non Residence building</v>
+      </c>
+      <c r="C15" t="str">
+        <v/>
+      </c>
+      <c r="D15" t="str">
+        <v/>
+      </c>
+      <c r="E15" t="str">
+        <v/>
+      </c>
+      <c r="F15" t="str">
+        <v/>
+      </c>
+      <c r="G15" t="str">
+        <v>Providing wireman for</v>
+      </c>
+      <c r="H15" t="str">
+        <v/>
+      </c>
+      <c r="I15" t="str">
+        <v/>
+      </c>
+      <c r="J15" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v/>
+      </c>
+      <c r="B16" t="str">
+        <v>Udaipur)</v>
+      </c>
+      <c r="C16" t="str">
+        <v/>
+      </c>
+      <c r="D16" t="str">
+        <v/>
+      </c>
+      <c r="E16" t="str">
+        <v/>
+      </c>
+      <c r="F16" t="str">
+        <v/>
+      </c>
+      <c r="G16" t="str">
+        <v>Elect mtc in Various</v>
+      </c>
+      <c r="H16" t="str">
+        <v/>
+      </c>
+      <c r="I16" t="str">
+        <v/>
+      </c>
+      <c r="J16" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v/>
+      </c>
+      <c r="B17" t="str">
+        <v/>
+      </c>
+      <c r="C17" t="str">
+        <v/>
+      </c>
+      <c r="D17" t="str">
+        <v/>
+      </c>
+      <c r="E17" t="str">
+        <v/>
+      </c>
+      <c r="F17" t="str">
+        <v/>
+      </c>
+      <c r="G17" t="str">
+        <v>Residence and Non</v>
+      </c>
+      <c r="H17" t="str">
+        <v/>
+      </c>
+      <c r="I17" t="str">
+        <v/>
+      </c>
+      <c r="J17" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v/>
+      </c>
+      <c r="B18" t="str">
+        <v/>
+      </c>
+      <c r="C18" t="str">
+        <v/>
+      </c>
+      <c r="D18" t="str">
+        <v/>
+      </c>
+      <c r="E18" t="str">
+        <v/>
+      </c>
+      <c r="F18" t="str">
+        <v/>
+      </c>
+      <c r="G18" t="str">
+        <v>Residence building</v>
+      </c>
+      <c r="H18" t="str">
+        <v/>
+      </c>
+      <c r="I18" t="str">
+        <v/>
+      </c>
+      <c r="J18" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v/>
+      </c>
+      <c r="B19" t="str">
+        <v/>
+      </c>
+      <c r="C19" t="str">
+        <v/>
+      </c>
+      <c r="D19" t="str">
+        <v/>
+      </c>
+      <c r="E19" t="str">
+        <v/>
+      </c>
+      <c r="F19" t="str">
+        <v/>
+      </c>
+      <c r="G19" t="str">
+        <v>Udaipur) , Paymanager</v>
+      </c>
+      <c r="H19" t="str">
+        <v/>
+      </c>
+      <c r="I19" t="str">
+        <v/>
+      </c>
+      <c r="J19" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v/>
+      </c>
+      <c r="B20" t="str">
+        <v/>
+      </c>
+      <c r="C20" t="str">
+        <v/>
+      </c>
+      <c r="D20" t="str">
+        <v/>
+      </c>
+      <c r="E20" t="str">
+        <v/>
+      </c>
+      <c r="F20" t="str">
+        <v/>
+      </c>
+      <c r="G20" t="str">
+        <v>Bill No: 40456274, Bill</v>
+      </c>
+      <c r="H20" t="str">
+        <v/>
+      </c>
+      <c r="I20" t="str">
+        <v/>
+      </c>
+      <c r="J20" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v/>
+      </c>
+      <c r="B21" t="str">
+        <v/>
+      </c>
+      <c r="C21" t="str">
+        <v/>
+      </c>
+      <c r="D21" t="str">
+        <v/>
+      </c>
+      <c r="E21" t="str">
+        <v/>
+      </c>
+      <c r="F21" t="str">
+        <v/>
+      </c>
+      <c r="G21" t="str">
+        <v>Type: Work Order</v>
+      </c>
+      <c r="H21" t="str">
+        <v/>
+      </c>
+      <c r="I21" t="str">
+        <v/>
+      </c>
+      <c r="J21" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v/>
+      </c>
+      <c r="B22" t="str">
+        <v/>
+      </c>
+      <c r="C22" t="str">
+        <v/>
+      </c>
+      <c r="D22" t="str">
+        <v/>
+      </c>
+      <c r="E22" t="str">
+        <v/>
+      </c>
+      <c r="F22" t="str">
+        <v/>
+      </c>
+      <c r="G22" t="str">
+        <v>Payments (5 Running)</v>
+      </c>
+      <c r="H22" t="str">
+        <v/>
+      </c>
+      <c r="I22" t="str">
+        <v/>
+      </c>
+      <c r="J22" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>20 15-07-2022</v>
+      </c>
+      <c r="B23" t="str">
+        <v>TVNo: 19679 Vikas Enterprises</v>
+      </c>
+      <c r="C23" t="str">
+        <v/>
+      </c>
+      <c r="D23" t="str">
+        <v>971.00</v>
+      </c>
+      <c r="E23" t="str">
+        <v>485: I-Tax, 486: GSTIN</v>
+      </c>
+      <c r="F23" t="str">
+        <v>15-07-2022</v>
+      </c>
+      <c r="G23" t="str">
+        <v>Tvno: 19679 Vikas Enterprises</v>
+      </c>
+      <c r="H23" t="str">
+        <v/>
+      </c>
+      <c r="I23" t="str">
+        <v>971 23261.00</v>
+      </c>
+      <c r="J23" t="str">
+        <v>24,232 8443-00-108-00-00</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v/>
+      </c>
+      <c r="B24" t="str">
+        <v>(AgreeMentNo 29/2021-</v>
+      </c>
+      <c r="C24" t="str">
+        <v/>
+      </c>
+      <c r="D24" t="str">
+        <v/>
+      </c>
+      <c r="E24" t="str">
+        <v>Deduction,</v>
+      </c>
+      <c r="F24" t="str">
+        <v/>
+      </c>
+      <c r="G24" t="str">
+        <v>(Wo.No.:531 , Wo.</v>
+      </c>
+      <c r="H24" t="str">
+        <v/>
+      </c>
+      <c r="I24" t="str">
+        <v/>
+      </c>
+      <c r="J24" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v/>
+      </c>
+      <c r="B25" t="str">
+        <v>22, Supply of</v>
+      </c>
+      <c r="C25" t="str">
+        <v/>
+      </c>
+      <c r="D25" t="str">
+        <v/>
+      </c>
+      <c r="E25" t="str">
+        <v/>
+      </c>
+      <c r="F25" t="str">
+        <v/>
+      </c>
+      <c r="G25" t="str">
+        <v>Date:01/09/2021,</v>
+      </c>
+      <c r="H25" t="str">
+        <v/>
+      </c>
+      <c r="I25" t="str">
+        <v/>
+      </c>
+      <c r="J25" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v/>
+      </c>
+      <c r="B26" t="str">
+        <v>experienced wireman</v>
+      </c>
+      <c r="C26" t="str">
+        <v/>
+      </c>
+      <c r="D26" t="str">
+        <v/>
+      </c>
+      <c r="E26" t="str">
+        <v/>
+      </c>
+      <c r="F26" t="str">
+        <v/>
+      </c>
+      <c r="G26" t="str">
+        <v>AgreeMentNo 29/2021-</v>
+      </c>
+      <c r="H26" t="str">
+        <v/>
+      </c>
+      <c r="I26" t="str">
+        <v/>
+      </c>
+      <c r="J26" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v/>
+      </c>
+      <c r="B27" t="str">
+        <v>Electricians for day to</v>
+      </c>
+      <c r="C27" t="str">
+        <v/>
+      </c>
+      <c r="D27" t="str">
+        <v/>
+      </c>
+      <c r="E27" t="str">
+        <v/>
+      </c>
+      <c r="F27" t="str">
+        <v/>
+      </c>
+      <c r="G27" t="str">
+        <v>22, Supply of</v>
+      </c>
+      <c r="H27" t="str">
+        <v/>
+      </c>
+      <c r="I27" t="str">
+        <v/>
+      </c>
+      <c r="J27" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v/>
+      </c>
+      <c r="B28" t="str">
+        <v>day maintenance for MB</v>
+      </c>
+      <c r="C28" t="str">
+        <v/>
+      </c>
+      <c r="D28" t="str">
+        <v/>
+      </c>
+      <c r="E28" t="str">
+        <v/>
+      </c>
+      <c r="F28" t="str">
+        <v/>
+      </c>
+      <c r="G28" t="str">
+        <v>experienced wireman</v>
+      </c>
+      <c r="H28" t="str">
+        <v/>
+      </c>
+      <c r="I28" t="str">
+        <v/>
+      </c>
+      <c r="J28" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v/>
+      </c>
+      <c r="B29" t="str">
+        <v>hospital and its</v>
+      </c>
+      <c r="C29" t="str">
+        <v/>
+      </c>
+      <c r="D29" t="str">
+        <v/>
+      </c>
+      <c r="E29" t="str">
+        <v/>
+      </c>
+      <c r="F29" t="str">
+        <v/>
+      </c>
+      <c r="G29" t="str">
+        <v>Electricians for day to</v>
+      </c>
+      <c r="H29" t="str">
+        <v/>
+      </c>
+      <c r="I29" t="str">
+        <v/>
+      </c>
+      <c r="J29" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v/>
+      </c>
+      <c r="B30" t="str">
+        <v>associates building</v>
+      </c>
+      <c r="C30" t="str">
+        <v/>
+      </c>
+      <c r="D30" t="str">
+        <v/>
+      </c>
+      <c r="E30" t="str">
+        <v/>
+      </c>
+      <c r="F30" t="str">
+        <v/>
+      </c>
+      <c r="G30" t="str">
+        <v>day maintenance for</v>
+      </c>
+      <c r="H30" t="str">
+        <v/>
+      </c>
+      <c r="I30" t="str">
+        <v/>
+      </c>
+      <c r="J30" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v/>
+      </c>
+      <c r="B31" t="str">
+        <v>Udaipur)</v>
+      </c>
+      <c r="C31" t="str">
+        <v/>
+      </c>
+      <c r="D31" t="str">
+        <v/>
+      </c>
+      <c r="E31" t="str">
+        <v/>
+      </c>
+      <c r="F31" t="str">
+        <v/>
+      </c>
+      <c r="G31" t="str">
+        <v>MB hospital and its</v>
+      </c>
+      <c r="H31" t="str">
+        <v/>
+      </c>
+      <c r="I31" t="str">
+        <v/>
+      </c>
+      <c r="J31" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v/>
+      </c>
+      <c r="B32" t="str">
+        <v/>
+      </c>
+      <c r="C32" t="str">
+        <v/>
+      </c>
+      <c r="D32" t="str">
+        <v/>
+      </c>
+      <c r="E32" t="str">
+        <v/>
+      </c>
+      <c r="F32" t="str">
+        <v/>
+      </c>
+      <c r="G32" t="str">
+        <v>associates building</v>
+      </c>
+      <c r="H32" t="str">
+        <v/>
+      </c>
+      <c r="I32" t="str">
+        <v/>
+      </c>
+      <c r="J32" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v/>
+      </c>
+      <c r="B33" t="str">
+        <v/>
+      </c>
+      <c r="C33" t="str">
+        <v/>
+      </c>
+      <c r="D33" t="str">
+        <v/>
+      </c>
+      <c r="E33" t="str">
+        <v/>
+      </c>
+      <c r="F33" t="str">
+        <v/>
+      </c>
+      <c r="G33" t="str">
+        <v>Udaipur) , Paymanager</v>
+      </c>
+      <c r="H33" t="str">
+        <v/>
+      </c>
+      <c r="I33" t="str">
+        <v/>
+      </c>
+      <c r="J33" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v/>
+      </c>
+      <c r="B34" t="str">
+        <v/>
+      </c>
+      <c r="C34" t="str">
+        <v/>
+      </c>
+      <c r="D34" t="str">
+        <v/>
+      </c>
+      <c r="E34" t="str">
+        <v/>
+      </c>
+      <c r="F34" t="str">
+        <v/>
+      </c>
+      <c r="G34" t="str">
+        <v>Bill No: 40456334, Bill</v>
+      </c>
+      <c r="H34" t="str">
+        <v/>
+      </c>
+      <c r="I34" t="str">
+        <v/>
+      </c>
+      <c r="J34" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v/>
+      </c>
+      <c r="B35" t="str">
+        <v/>
+      </c>
+      <c r="C35" t="str">
+        <v/>
+      </c>
+      <c r="D35" t="str">
+        <v/>
+      </c>
+      <c r="E35" t="str">
+        <v/>
+      </c>
+      <c r="F35" t="str">
+        <v/>
+      </c>
+      <c r="G35" t="str">
+        <v>Type: Work Order</v>
+      </c>
+      <c r="H35" t="str">
+        <v/>
+      </c>
+      <c r="I35" t="str">
+        <v/>
+      </c>
+      <c r="J35" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v/>
+      </c>
+      <c r="B36" t="str">
+        <v/>
+      </c>
+      <c r="C36" t="str">
+        <v/>
+      </c>
+      <c r="D36" t="str">
+        <v/>
+      </c>
+      <c r="E36" t="str">
+        <v/>
+      </c>
+      <c r="F36" t="str">
+        <v/>
+      </c>
+      <c r="G36" t="str">
+        <v>Payments (5 Running)</v>
+      </c>
+      <c r="H36" t="str">
+        <v/>
+      </c>
+      <c r="I36" t="str">
+        <v/>
+      </c>
+      <c r="J36" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>21 15-07-2022</v>
+      </c>
+      <c r="B37" t="str">
+        <v>TVNo: 19680 Dainik Pukar</v>
+      </c>
+      <c r="C37" t="str">
+        <v/>
+      </c>
+      <c r="D37" t="str">
+        <v>43.00</v>
+      </c>
+      <c r="E37" t="str">
+        <v>29: I-Tax, 14: Patrakar-</v>
+      </c>
+      <c r="F37" t="str">
+        <v>15-07-2022</v>
+      </c>
+      <c r="G37" t="str">
+        <v>Tvno: 19680 Dainik Pukar ,</v>
+      </c>
+      <c r="H37" t="str">
+        <v/>
+      </c>
+      <c r="I37" t="str">
+        <v>43 1395.00</v>
+      </c>
+      <c r="J37" t="str">
+        <v>1,438 8443-00-108-00-00</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v/>
+      </c>
+      <c r="B38" t="str">
+        <v/>
+      </c>
+      <c r="C38" t="str">
+        <v/>
+      </c>
+      <c r="D38" t="str">
+        <v/>
+      </c>
+      <c r="E38" t="str">
+        <v>Kalyan,</v>
+      </c>
+      <c r="F38" t="str">
+        <v/>
+      </c>
+      <c r="G38" t="str">
+        <v>Paymanager Bill No:</v>
+      </c>
+      <c r="H38" t="str">
+        <v/>
+      </c>
+      <c r="I38" t="str">
+        <v/>
+      </c>
+      <c r="J38" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v/>
+      </c>
+      <c r="B39" t="str">
+        <v/>
+      </c>
+      <c r="C39" t="str">
+        <v/>
+      </c>
+      <c r="D39" t="str">
+        <v/>
+      </c>
+      <c r="E39" t="str">
+        <v/>
+      </c>
+      <c r="F39" t="str">
+        <v/>
+      </c>
+      <c r="G39" t="str">
+        <v>40456376, Bill Type:</v>
+      </c>
+      <c r="H39" t="str">
+        <v/>
+      </c>
+      <c r="I39" t="str">
+        <v/>
+      </c>
+      <c r="J39" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v/>
+      </c>
+      <c r="B40" t="str">
+        <v/>
+      </c>
+      <c r="C40" t="str">
+        <v/>
+      </c>
+      <c r="D40" t="str">
+        <v/>
+      </c>
+      <c r="E40" t="str">
+        <v/>
+      </c>
+      <c r="F40" t="str">
+        <v/>
+      </c>
+      <c r="G40" t="str">
+        <v>HR Payment Less than</v>
+      </c>
+      <c r="H40" t="str">
+        <v/>
+      </c>
+      <c r="I40" t="str">
+        <v/>
+      </c>
+      <c r="J40" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v/>
+      </c>
+      <c r="B41" t="str">
+        <v/>
+      </c>
+      <c r="C41" t="str">
+        <v/>
+      </c>
+      <c r="D41" t="str">
+        <v/>
+      </c>
+      <c r="E41" t="str">
+        <v/>
+      </c>
+      <c r="F41" t="str">
+        <v/>
+      </c>
+      <c r="G41" t="str">
+        <v>30 thousands</v>
+      </c>
+      <c r="H41" t="str">
+        <v/>
+      </c>
+      <c r="I41" t="str">
+        <v/>
+      </c>
+      <c r="J41" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>22 15-07-2022</v>
+      </c>
+      <c r="B42" t="str">
+        <v>TVNo: 19681 Dainik Pukar</v>
+      </c>
+      <c r="C42" t="str">
+        <v/>
+      </c>
+      <c r="D42" t="str">
+        <v>45.00</v>
+      </c>
+      <c r="E42" t="str">
+        <v>30: I-Tax, 15: Patrakar-</v>
+      </c>
+      <c r="F42" t="str">
+        <v>15-07-2022</v>
+      </c>
+      <c r="G42" t="str">
+        <v>Tvno: 19681 Dainik Pukar ,</v>
+      </c>
+      <c r="H42" t="str">
+        <v/>
+      </c>
+      <c r="I42" t="str">
+        <v>45 1475.00</v>
+      </c>
+      <c r="J42" t="str">
+        <v>1,520 8443-00-108-00-00</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v/>
+      </c>
+      <c r="B43" t="str">
+        <v/>
+      </c>
+      <c r="C43" t="str">
+        <v/>
+      </c>
+      <c r="D43" t="str">
+        <v/>
+      </c>
+      <c r="E43" t="str">
+        <v>Kalyan,</v>
+      </c>
+      <c r="F43" t="str">
+        <v/>
+      </c>
+      <c r="G43" t="str">
+        <v>Paymanager Bill No:</v>
+      </c>
+      <c r="H43" t="str">
+        <v/>
+      </c>
+      <c r="I43" t="str">
+        <v/>
+      </c>
+      <c r="J43" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v/>
+      </c>
+      <c r="B44" t="str">
+        <v/>
+      </c>
+      <c r="C44" t="str">
+        <v/>
+      </c>
+      <c r="D44" t="str">
+        <v/>
+      </c>
+      <c r="E44" t="str">
+        <v/>
+      </c>
+      <c r="F44" t="str">
+        <v/>
+      </c>
+      <c r="G44" t="str">
+        <v>40456507, Bill Type:</v>
+      </c>
+      <c r="H44" t="str">
+        <v/>
+      </c>
+      <c r="I44" t="str">
+        <v/>
+      </c>
+      <c r="J44" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v/>
+      </c>
+      <c r="B45" t="str">
+        <v/>
+      </c>
+      <c r="C45" t="str">
+        <v/>
+      </c>
+      <c r="D45" t="str">
+        <v/>
+      </c>
+      <c r="E45" t="str">
+        <v/>
+      </c>
+      <c r="F45" t="str">
+        <v/>
+      </c>
+      <c r="G45" t="str">
+        <v>HR Payment</v>
+      </c>
+      <c r="H45" t="str">
+        <v/>
+      </c>
+      <c r="I45" t="str">
+        <v/>
+      </c>
+      <c r="J45" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v/>
+      </c>
+      <c r="B46" t="str">
+        <v/>
+      </c>
+      <c r="C46" t="str">
+        <v/>
+      </c>
+      <c r="D46" t="str">
+        <v/>
+      </c>
+      <c r="E46" t="str">
+        <v/>
+      </c>
+      <c r="F46" t="str">
+        <v/>
+      </c>
+      <c r="G46" t="str">
+        <v>(Contingency/Misc)</v>
+      </c>
+      <c r="H46" t="str">
+        <v/>
+      </c>
+      <c r="I46" t="str">
+        <v/>
+      </c>
+      <c r="J46" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>23 18-07-2022</v>
+      </c>
+      <c r="B47" t="str">
+        <v>CrNo: 74 Seema Electricals</v>
+      </c>
+      <c r="C47" t="str">
+        <v/>
+      </c>
+      <c r="D47" t="str">
+        <v>2,485.00</v>
+      </c>
+      <c r="E47" t="str">
+        <v>8443-00-108-00-00</v>
+      </c>
+      <c r="F47" t="str">
+        <v>18-07-2022</v>
+      </c>
+      <c r="G47" t="str">
+        <v>ChlnNo: 3155630 Remittance to Treasury</v>
+      </c>
+      <c r="H47" t="str">
+        <v/>
+      </c>
+      <c r="I47" t="str">
+        <v>19,700 0.00</v>
+      </c>
+      <c r="J47" t="str">
+        <v>19,700 0075-00-800-52-01, 8443-</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v/>
+      </c>
+      <c r="B48" t="str">
+        <v/>
+      </c>
+      <c r="C48" t="str">
+        <v/>
+      </c>
+      <c r="D48" t="str">
+        <v/>
+      </c>
+      <c r="E48" t="str">
+        <v/>
+      </c>
+      <c r="F48" t="str">
+        <v/>
+      </c>
+      <c r="G48" t="str">
+        <v>GRN:64660268</v>
+      </c>
+      <c r="H48" t="str">
+        <v/>
+      </c>
+      <c r="I48" t="str">
+        <v/>
+      </c>
+      <c r="J48" t="str">
+        <v>00-108-00-00</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>24 18-07-2022</v>
+      </c>
+      <c r="B49" t="str">
+        <v>CrNo: 75 Seema Electricals</v>
+      </c>
+      <c r="C49" t="str">
+        <v/>
+      </c>
+      <c r="D49" t="str">
+        <v>575.00</v>
+      </c>
+      <c r="E49" t="str">
+        <v>8443-00-108-00-00</v>
+      </c>
+      <c r="F49" t="str">
+        <v>18-07-2022</v>
+      </c>
+      <c r="G49" t="str">
+        <v>ChlnNo: 3165977 Remittance to Treasury</v>
+      </c>
+      <c r="H49" t="str">
+        <v/>
+      </c>
+      <c r="I49" t="str">
+        <v>21,420 0.00</v>
+      </c>
+      <c r="J49" t="str">
+        <v>21,420 0075-00-800-52-01, 8443-</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v/>
+      </c>
+      <c r="B50" t="str">
+        <v/>
+      </c>
+      <c r="C50" t="str">
+        <v/>
+      </c>
+      <c r="D50" t="str">
+        <v/>
+      </c>
+      <c r="E50" t="str">
+        <v/>
+      </c>
+      <c r="F50" t="str">
+        <v/>
+      </c>
+      <c r="G50" t="str">
+        <v>GRN:64651008</v>
+      </c>
+      <c r="H50" t="str">
+        <v/>
+      </c>
+      <c r="I50" t="str">
+        <v/>
+      </c>
+      <c r="J50" t="str">
+        <v>00-108-00-00</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>25 18-07-2022</v>
+      </c>
+      <c r="B51" t="str">
+        <v>CrNo: 76 Neha Electric</v>
+      </c>
+      <c r="C51" t="str">
+        <v/>
+      </c>
+      <c r="D51" t="str">
+        <v>2,485.00</v>
+      </c>
+      <c r="E51" t="str">
+        <v>8443-00-108-00-00</v>
+      </c>
+      <c r="F51" t="str">
+        <v>18-07-2022</v>
+      </c>
+      <c r="G51" t="str">
+        <v>ChlnNo: 3172756 Remittance to Treasury</v>
+      </c>
+      <c r="H51" t="str">
+        <v/>
+      </c>
+      <c r="I51" t="str">
+        <v>19,700 0.00</v>
+      </c>
+      <c r="J51" t="str">
+        <v>19,700 0075-00-800-52-01, 8443-</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v/>
+      </c>
+      <c r="B52" t="str">
+        <v/>
+      </c>
+      <c r="C52" t="str">
+        <v/>
+      </c>
+      <c r="D52" t="str">
+        <v/>
+      </c>
+      <c r="E52" t="str">
+        <v/>
+      </c>
+      <c r="F52" t="str">
+        <v/>
+      </c>
+      <c r="G52" t="str">
+        <v>GRN:64651687</v>
+      </c>
+      <c r="H52" t="str">
+        <v/>
+      </c>
+      <c r="I52" t="str">
+        <v/>
+      </c>
+      <c r="J52" t="str">
+        <v>00-108-00-00</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>26 18-07-2022</v>
+      </c>
+      <c r="B53" t="str">
+        <v>CrNo: Ch No: Technoid Systems</v>
+      </c>
+      <c r="C53" t="str">
+        <v/>
+      </c>
+      <c r="D53" t="str">
+        <v>500.00</v>
+      </c>
+      <c r="E53" t="str">
+        <v>0075-00-800-52-01</v>
+      </c>
+      <c r="F53" t="str">
+        <v>18-07-2022</v>
+      </c>
+      <c r="G53" t="str">
+        <v>ChlnNo: 3173244 Remittance to Treasury</v>
+      </c>
+      <c r="H53" t="str">
+        <v/>
+      </c>
+      <c r="I53" t="str">
+        <v>10,900 0.00</v>
+      </c>
+      <c r="J53" t="str">
+        <v>10,900 0075-00-800-52-01, 8443-</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v/>
+      </c>
+      <c r="B54" t="str">
+        <v>3155630 Solution</v>
+      </c>
+      <c r="C54" t="str">
+        <v/>
+      </c>
+      <c r="D54" t="str">
+        <v/>
+      </c>
+      <c r="E54" t="str">
+        <v/>
+      </c>
+      <c r="F54" t="str">
+        <v/>
+      </c>
+      <c r="G54" t="str">
+        <v>GRN:64625299</v>
+      </c>
+      <c r="H54" t="str">
+        <v/>
+      </c>
+      <c r="I54" t="str">
+        <v/>
+      </c>
+      <c r="J54" t="str">
+        <v>00-108-00-00</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>27 18-07-2022</v>
+      </c>
+      <c r="B55" t="str">
+        <v>CrNo: Ch No: Technoid Systems</v>
+      </c>
+      <c r="C55" t="str">
+        <v/>
+      </c>
+      <c r="D55" t="str">
+        <v>19,200.00</v>
+      </c>
+      <c r="E55" t="str">
+        <v>8443-00-108-00-00</v>
+      </c>
+      <c r="F55" t="str">
+        <v>18-07-2022</v>
+      </c>
+      <c r="G55" t="str">
+        <v>ChlnNo: 3175155 Remittance to Treasury</v>
+      </c>
+      <c r="H55" t="str">
+        <v/>
+      </c>
+      <c r="I55" t="str">
+        <v>5,730 0.00</v>
+      </c>
+      <c r="J55" t="str">
+        <v>5,730 0075-00-800-52-01, 8443-</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v/>
+      </c>
+      <c r="B56" t="str">
+        <v>3155630 Solution</v>
+      </c>
+      <c r="C56" t="str">
+        <v/>
+      </c>
+      <c r="D56" t="str">
+        <v/>
+      </c>
+      <c r="E56" t="str">
+        <v/>
+      </c>
+      <c r="F56" t="str">
+        <v/>
+      </c>
+      <c r="G56" t="str">
+        <v>GRN:64656670</v>
+      </c>
+      <c r="H56" t="str">
+        <v/>
+      </c>
+      <c r="I56" t="str">
+        <v/>
+      </c>
+      <c r="J56" t="str">
+        <v>00-108-00-00</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>28 18-07-2022</v>
+      </c>
+      <c r="B57" t="str">
+        <v>CrNo: Ch No: Vedant Synergy Pvt Ltd</v>
+      </c>
+      <c r="C57" t="str">
+        <v/>
+      </c>
+      <c r="D57" t="str">
+        <v>500.00</v>
+      </c>
+      <c r="E57" t="str">
+        <v>0075-00-800-52-01</v>
+      </c>
+      <c r="F57" t="str">
+        <v>18-07-2022</v>
+      </c>
+      <c r="G57" t="str">
+        <v>ChlnNo: 3181008 Remittance to Treasury</v>
+      </c>
+      <c r="H57" t="str">
+        <v/>
+      </c>
+      <c r="I57" t="str">
+        <v>5,300 0.00</v>
+      </c>
+      <c r="J57" t="str">
+        <v>5,300 0075-00-800-52-01, 8443-</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v/>
+      </c>
+      <c r="B58" t="str">
+        <v>3165977</v>
+      </c>
+      <c r="C58" t="str">
+        <v/>
+      </c>
+      <c r="D58" t="str">
+        <v/>
+      </c>
+      <c r="E58" t="str">
+        <v/>
+      </c>
+      <c r="F58" t="str">
+        <v/>
+      </c>
+      <c r="G58" t="str">
+        <v>GRN:64655679</v>
+      </c>
+      <c r="H58" t="str">
+        <v/>
+      </c>
+      <c r="I58" t="str">
+        <v/>
+      </c>
+      <c r="J58" t="str">
+        <v>00-108-00-00</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>29 18-07-2022</v>
+      </c>
+      <c r="B59" t="str">
+        <v>CrNo: Ch No: Vedant Synergy Pvt Ltd</v>
+      </c>
+      <c r="C59" t="str">
+        <v/>
+      </c>
+      <c r="D59" t="str">
+        <v>20,920.00</v>
+      </c>
+      <c r="E59" t="str">
+        <v>8443-00-108-00-00</v>
+      </c>
+      <c r="F59" t="str">
+        <v>18-07-2022</v>
+      </c>
+      <c r="G59" t="str">
+        <v>ChlnNo: 3187338 Remittance to Treasury</v>
+      </c>
+      <c r="H59" t="str">
+        <v/>
+      </c>
+      <c r="I59" t="str">
+        <v>2,485 0.00</v>
+      </c>
+      <c r="J59" t="str">
+        <v>2,485 8443-00-108-00-00</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v/>
+      </c>
+      <c r="B60" t="str">
+        <v>3165977</v>
+      </c>
+      <c r="C60" t="str">
+        <v/>
+      </c>
+      <c r="D60" t="str">
+        <v/>
+      </c>
+      <c r="E60" t="str">
+        <v/>
+      </c>
+      <c r="F60" t="str">
+        <v/>
+      </c>
+      <c r="G60" t="str">
+        <v>GRN:64536373</v>
+      </c>
+      <c r="H60" t="str">
+        <v/>
+      </c>
+      <c r="I60" t="str">
+        <v/>
+      </c>
+      <c r="J60" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>30 18-07-2022</v>
+      </c>
+      <c r="B61" t="str">
+        <v>CrNo: Ch No: Vedant Synergy Pvt Ltd</v>
+      </c>
+      <c r="C61" t="str">
+        <v/>
+      </c>
+      <c r="D61" t="str">
+        <v>500.00</v>
+      </c>
+      <c r="E61" t="str">
+        <v>0075-00-800-52-01</v>
+      </c>
+      <c r="F61" t="str">
+        <v>18-07-2022</v>
+      </c>
+      <c r="G61" t="str">
+        <v>ChlnNo: 3187339 Remittance to Treasury</v>
+      </c>
+      <c r="H61" t="str">
+        <v/>
+      </c>
+      <c r="I61" t="str">
+        <v>575 0.00</v>
+      </c>
+      <c r="J61" t="str">
+        <v>575 8443-00-108-00-00</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v/>
+      </c>
+      <c r="B62" t="str">
+        <v>3172756</v>
+      </c>
+      <c r="C62" t="str">
+        <v/>
+      </c>
+      <c r="D62" t="str">
+        <v/>
+      </c>
+      <c r="E62" t="str">
+        <v/>
+      </c>
+      <c r="F62" t="str">
+        <v/>
+      </c>
+      <c r="G62" t="str">
+        <v>GRN:64536422</v>
+      </c>
+      <c r="H62" t="str">
+        <v/>
+      </c>
+      <c r="I62" t="str">
+        <v/>
+      </c>
+      <c r="J62" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>Page 3 of 5</v>
+      </c>
+      <c r="B63" t="str">
+        <v/>
+      </c>
+      <c r="C63" t="str">
+        <v/>
+      </c>
+      <c r="D63" t="str">
+        <v/>
+      </c>
+      <c r="E63" t="str">
+        <v/>
+      </c>
+      <c r="F63" t="str">
+        <v/>
+      </c>
+      <c r="G63" t="str">
+        <v/>
+      </c>
+      <c r="H63" t="str">
+        <v/>
+      </c>
+      <c r="I63" t="str">
+        <v>Courtesy: https://wam.rajasthan.gov.in (Printed on 9/15/2025 5:02:57 PM)</v>
+      </c>
+      <c r="J63" t="str">
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:J63"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <cols>
+    <col min="1" max="1" width="15.83203125" customWidth="1"/>
+    <col min="2" max="2" width="37.83203125" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" customWidth="1"/>
+    <col min="4" max="4" width="35.83203125" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" customWidth="1"/>
+    <col min="6" max="6" width="40.83203125" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" customWidth="1"/>
+    <col min="8" max="8" width="50.83203125" customWidth="1"/>
+    <col min="9" max="9" width="16.83203125" customWidth="1"/>
+    <col min="10" max="10" width="11.83203125" customWidth="1"/>
+    <col min="11" max="11" width="26.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="C1" t="str">
+        <v>RECEIPT SIDE</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="G1" t="str">
+        <v>PAYMENT SIDE</v>
+      </c>
+      <c r="H1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="I1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="J1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="K1" t="str">
+        <v>Column</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>S Date of</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Voucher No /</v>
+      </c>
+      <c r="C2" t="str">
+        <v>From whom</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Amount Classification of</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Date of</v>
+      </c>
+      <c r="F2" t="str">
+        <v>Voucher No.</v>
+      </c>
+      <c r="G2" t="str">
+        <v>To whom Paid</v>
+      </c>
+      <c r="H2" t="str">
+        <v/>
+      </c>
+      <c r="I2" t="str">
+        <v>Payments</v>
+      </c>
+      <c r="J2" t="str">
+        <v/>
+      </c>
+      <c r="K2" t="str">
+        <v>Classification of</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>No. Receipt</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Receipt No</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Received</v>
+      </c>
+      <c r="D3" t="str">
+        <v>(Cash) Receipt</v>
+      </c>
+      <c r="E3" t="str">
+        <v>Payment</v>
+      </c>
+      <c r="F3" t="str">
+        <v/>
+      </c>
+      <c r="G3" t="str">
+        <v/>
+      </c>
+      <c r="H3" t="str">
+        <v/>
+      </c>
+      <c r="I3" t="str">
+        <v/>
+      </c>
+      <c r="J3" t="str">
+        <v/>
+      </c>
+      <c r="K3" t="str">
+        <v>Charges</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v/>
+      </c>
+      <c r="B4" t="str">
+        <v/>
+      </c>
+      <c r="C4" t="str">
+        <v/>
+      </c>
+      <c r="D4" t="str">
+        <v/>
+      </c>
+      <c r="E4" t="str">
+        <v/>
+      </c>
+      <c r="F4" t="str">
+        <v/>
+      </c>
+      <c r="G4" t="str">
+        <v/>
+      </c>
+      <c r="H4" t="str">
+        <v>Cash</v>
+      </c>
+      <c r="I4" t="str">
+        <v>Treasury Total</v>
+      </c>
+      <c r="J4" t="str">
+        <v/>
+      </c>
+      <c r="K4" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>31 18-07-2022</v>
+      </c>
+      <c r="B5" t="str">
+        <v>CrNo: Ch No: Vedant Synergy Pvt Ltd</v>
+      </c>
+      <c r="C5" t="str">
+        <v/>
+      </c>
+      <c r="D5" t="str">
+        <v>19,200.00 8443-00-108-00-00</v>
+      </c>
+      <c r="E5" t="str">
+        <v>18-07-2022</v>
+      </c>
+      <c r="F5" t="str">
+        <v>ChlnNo: 3187340 Remittance to Treasury</v>
+      </c>
+      <c r="G5" t="str">
+        <v/>
+      </c>
+      <c r="H5" t="str">
+        <v>2,485</v>
+      </c>
+      <c r="I5" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="J5" t="str">
+        <v>2,485</v>
+      </c>
+      <c r="K5" t="str">
+        <v>8443-00-108-00-00</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v/>
+      </c>
+      <c r="B6" t="str">
+        <v>3172756</v>
+      </c>
+      <c r="C6" t="str">
+        <v/>
+      </c>
+      <c r="D6" t="str">
+        <v/>
+      </c>
+      <c r="E6" t="str">
+        <v/>
+      </c>
+      <c r="F6" t="str">
+        <v>GRN:64536480</v>
+      </c>
+      <c r="G6" t="str">
+        <v/>
+      </c>
+      <c r="H6" t="str">
+        <v/>
+      </c>
+      <c r="I6" t="str">
+        <v/>
+      </c>
+      <c r="J6" t="str">
+        <v/>
+      </c>
+      <c r="K6" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>32 18-07-2022</v>
+      </c>
+      <c r="B7" t="str">
+        <v>CrNo: Ch No: Seema Electricals</v>
+      </c>
+      <c r="C7" t="str">
+        <v/>
+      </c>
+      <c r="D7" t="str">
+        <v>500.00 0075-00-800-52-01</v>
+      </c>
+      <c r="E7" t="str">
+        <v>18-07-2022</v>
+      </c>
+      <c r="F7" t="str">
+        <v>ChlnNo: 3193437 Remittance to Treasury</v>
+      </c>
+      <c r="G7" t="str">
+        <v/>
+      </c>
+      <c r="H7" t="str">
+        <v>10,900</v>
+      </c>
+      <c r="I7" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="J7" t="str">
+        <v>10,900</v>
+      </c>
+      <c r="K7" t="str">
+        <v>0075-00-800-52-01, 8443-</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v/>
+      </c>
+      <c r="B8" t="str">
+        <v>3173244</v>
+      </c>
+      <c r="C8" t="str">
+        <v/>
+      </c>
+      <c r="D8" t="str">
+        <v/>
+      </c>
+      <c r="E8" t="str">
+        <v/>
+      </c>
+      <c r="F8" t="str">
+        <v>GRN:64640481</v>
+      </c>
+      <c r="G8" t="str">
+        <v/>
+      </c>
+      <c r="H8" t="str">
+        <v/>
+      </c>
+      <c r="I8" t="str">
+        <v/>
+      </c>
+      <c r="J8" t="str">
+        <v/>
+      </c>
+      <c r="K8" t="str">
+        <v>00-108-00-00</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>33 18-07-2022</v>
+      </c>
+      <c r="B9" t="str">
+        <v>CrNo: Ch No: Seema Electricals</v>
+      </c>
+      <c r="C9" t="str">
+        <v/>
+      </c>
+      <c r="D9" t="str">
+        <v>10,400.00 8443-00-108-00-00</v>
+      </c>
+      <c r="E9" t="str">
+        <v>18-07-2022</v>
+      </c>
+      <c r="F9" t="str">
+        <v>ChlnNo: 3193823 Remittance to Treasury</v>
+      </c>
+      <c r="G9" t="str">
+        <v/>
+      </c>
+      <c r="H9" t="str">
+        <v>10,900</v>
+      </c>
+      <c r="I9" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="J9" t="str">
+        <v>10,900</v>
+      </c>
+      <c r="K9" t="str">
+        <v>0075-00-800-52-01, 8443-</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v/>
+      </c>
+      <c r="B10" t="str">
+        <v>3173244</v>
+      </c>
+      <c r="C10" t="str">
+        <v/>
+      </c>
+      <c r="D10" t="str">
+        <v/>
+      </c>
+      <c r="E10" t="str">
+        <v/>
+      </c>
+      <c r="F10" t="str">
+        <v>GRN:64651268</v>
+      </c>
+      <c r="G10" t="str">
+        <v/>
+      </c>
+      <c r="H10" t="str">
+        <v/>
+      </c>
+      <c r="I10" t="str">
+        <v/>
+      </c>
+      <c r="J10" t="str">
+        <v/>
+      </c>
+      <c r="K10" t="str">
+        <v>00-108-00-00</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>34 18-07-2022</v>
+      </c>
+      <c r="B11" t="str">
+        <v>CrNo: Ch No: Som Electricals</v>
+      </c>
+      <c r="C11" t="str">
+        <v/>
+      </c>
+      <c r="D11" t="str">
+        <v>500.00 0075-00-800-52-01</v>
+      </c>
+      <c r="E11" t="str">
+        <v/>
+      </c>
+      <c r="F11" t="str">
+        <v/>
+      </c>
+      <c r="G11" t="str">
+        <v/>
+      </c>
+      <c r="H11" t="str">
+        <v/>
+      </c>
+      <c r="I11" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="J11" t="str">
+        <v/>
+      </c>
+      <c r="K11" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v/>
+      </c>
+      <c r="B12" t="str">
+        <v>3175155</v>
+      </c>
+      <c r="C12" t="str">
+        <v/>
+      </c>
+      <c r="D12" t="str">
+        <v/>
+      </c>
+      <c r="E12" t="str">
+        <v/>
+      </c>
+      <c r="F12" t="str">
+        <v/>
+      </c>
+      <c r="G12" t="str">
+        <v/>
+      </c>
+      <c r="H12" t="str">
+        <v/>
+      </c>
+      <c r="I12" t="str">
+        <v/>
+      </c>
+      <c r="J12" t="str">
+        <v/>
+      </c>
+      <c r="K12" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>35 18-07-2022</v>
+      </c>
+      <c r="B13" t="str">
+        <v>CrNo: Ch No: Som Electricals</v>
+      </c>
+      <c r="C13" t="str">
+        <v/>
+      </c>
+      <c r="D13" t="str">
+        <v>5,230.00 8443-00-108-00-00</v>
+      </c>
+      <c r="E13" t="str">
+        <v/>
+      </c>
+      <c r="F13" t="str">
+        <v/>
+      </c>
+      <c r="G13" t="str">
+        <v/>
+      </c>
+      <c r="H13" t="str">
+        <v/>
+      </c>
+      <c r="I13" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="J13" t="str">
+        <v/>
+      </c>
+      <c r="K13" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v/>
+      </c>
+      <c r="B14" t="str">
+        <v>3175155</v>
+      </c>
+      <c r="C14" t="str">
+        <v/>
+      </c>
+      <c r="D14" t="str">
+        <v/>
+      </c>
+      <c r="E14" t="str">
+        <v/>
+      </c>
+      <c r="F14" t="str">
+        <v/>
+      </c>
+      <c r="G14" t="str">
+        <v/>
+      </c>
+      <c r="H14" t="str">
+        <v/>
+      </c>
+      <c r="I14" t="str">
+        <v/>
+      </c>
+      <c r="J14" t="str">
+        <v/>
+      </c>
+      <c r="K14" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>36 18-07-2022</v>
+      </c>
+      <c r="B15" t="str">
+        <v>CrNo: Ch No: Som Electricals</v>
+      </c>
+      <c r="C15" t="str">
+        <v/>
+      </c>
+      <c r="D15" t="str">
+        <v>500.00 0075-00-800-52-01</v>
+      </c>
+      <c r="E15" t="str">
+        <v/>
+      </c>
+      <c r="F15" t="str">
+        <v/>
+      </c>
+      <c r="G15" t="str">
+        <v/>
+      </c>
+      <c r="H15" t="str">
+        <v/>
+      </c>
+      <c r="I15" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="J15" t="str">
+        <v/>
+      </c>
+      <c r="K15" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v/>
+      </c>
+      <c r="B16" t="str">
+        <v>3181008</v>
+      </c>
+      <c r="C16" t="str">
+        <v/>
+      </c>
+      <c r="D16" t="str">
+        <v/>
+      </c>
+      <c r="E16" t="str">
+        <v/>
+      </c>
+      <c r="F16" t="str">
+        <v/>
+      </c>
+      <c r="G16" t="str">
+        <v/>
+      </c>
+      <c r="H16" t="str">
+        <v/>
+      </c>
+      <c r="I16" t="str">
+        <v/>
+      </c>
+      <c r="J16" t="str">
+        <v/>
+      </c>
+      <c r="K16" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>37 18-07-2022</v>
+      </c>
+      <c r="B17" t="str">
+        <v>CrNo: Ch No: Som Electricals</v>
+      </c>
+      <c r="C17" t="str">
+        <v/>
+      </c>
+      <c r="D17" t="str">
+        <v>4,800.00 8443-00-108-00-00</v>
+      </c>
+      <c r="E17" t="str">
+        <v/>
+      </c>
+      <c r="F17" t="str">
+        <v/>
+      </c>
+      <c r="G17" t="str">
+        <v/>
+      </c>
+      <c r="H17" t="str">
+        <v/>
+      </c>
+      <c r="I17" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="J17" t="str">
+        <v/>
+      </c>
+      <c r="K17" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v/>
+      </c>
+      <c r="B18" t="str">
+        <v>3181008</v>
+      </c>
+      <c r="C18" t="str">
+        <v/>
+      </c>
+      <c r="D18" t="str">
+        <v/>
+      </c>
+      <c r="E18" t="str">
+        <v/>
+      </c>
+      <c r="F18" t="str">
+        <v/>
+      </c>
+      <c r="G18" t="str">
+        <v/>
+      </c>
+      <c r="H18" t="str">
+        <v/>
+      </c>
+      <c r="I18" t="str">
+        <v/>
+      </c>
+      <c r="J18" t="str">
+        <v/>
+      </c>
+      <c r="K18" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>38 18-07-2022</v>
+      </c>
+      <c r="B19" t="str">
+        <v>CrNo: Ch No: Vikas Enterprises</v>
+      </c>
+      <c r="C19" t="str">
+        <v/>
+      </c>
+      <c r="D19" t="str">
+        <v>500.00 0075-00-800-52-01</v>
+      </c>
+      <c r="E19" t="str">
+        <v/>
+      </c>
+      <c r="F19" t="str">
+        <v/>
+      </c>
+      <c r="G19" t="str">
+        <v/>
+      </c>
+      <c r="H19" t="str">
+        <v/>
+      </c>
+      <c r="I19" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="J19" t="str">
+        <v/>
+      </c>
+      <c r="K19" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v/>
+      </c>
+      <c r="B20" t="str">
+        <v>3193437</v>
+      </c>
+      <c r="C20" t="str">
+        <v/>
+      </c>
+      <c r="D20" t="str">
+        <v/>
+      </c>
+      <c r="E20" t="str">
+        <v/>
+      </c>
+      <c r="F20" t="str">
+        <v/>
+      </c>
+      <c r="G20" t="str">
+        <v/>
+      </c>
+      <c r="H20" t="str">
+        <v/>
+      </c>
+      <c r="I20" t="str">
+        <v/>
+      </c>
+      <c r="J20" t="str">
+        <v/>
+      </c>
+      <c r="K20" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>39 18-07-2022</v>
+      </c>
+      <c r="B21" t="str">
+        <v>CrNo: Ch No: Vikas Enterprises</v>
+      </c>
+      <c r="C21" t="str">
+        <v/>
+      </c>
+      <c r="D21" t="str">
+        <v>10,400.00 8443-00-108-00-00</v>
+      </c>
+      <c r="E21" t="str">
+        <v/>
+      </c>
+      <c r="F21" t="str">
+        <v/>
+      </c>
+      <c r="G21" t="str">
+        <v/>
+      </c>
+      <c r="H21" t="str">
+        <v/>
+      </c>
+      <c r="I21" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="J21" t="str">
+        <v/>
+      </c>
+      <c r="K21" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v/>
+      </c>
+      <c r="B22" t="str">
+        <v>3193437</v>
+      </c>
+      <c r="C22" t="str">
+        <v/>
+      </c>
+      <c r="D22" t="str">
+        <v/>
+      </c>
+      <c r="E22" t="str">
+        <v/>
+      </c>
+      <c r="F22" t="str">
+        <v/>
+      </c>
+      <c r="G22" t="str">
+        <v/>
+      </c>
+      <c r="H22" t="str">
+        <v/>
+      </c>
+      <c r="I22" t="str">
+        <v/>
+      </c>
+      <c r="J22" t="str">
+        <v/>
+      </c>
+      <c r="K22" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>40 18-07-2022</v>
+      </c>
+      <c r="B23" t="str">
+        <v>CrNo: Ch No: Mitul Enterprises</v>
+      </c>
+      <c r="C23" t="str">
+        <v/>
+      </c>
+      <c r="D23" t="str">
+        <v>500.00 0075-00-800-52-01</v>
+      </c>
+      <c r="E23" t="str">
+        <v/>
+      </c>
+      <c r="F23" t="str">
+        <v/>
+      </c>
+      <c r="G23" t="str">
+        <v/>
+      </c>
+      <c r="H23" t="str">
+        <v/>
+      </c>
+      <c r="I23" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="J23" t="str">
+        <v/>
+      </c>
+      <c r="K23" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v/>
+      </c>
+      <c r="B24" t="str">
+        <v>3193823</v>
+      </c>
+      <c r="C24" t="str">
+        <v/>
+      </c>
+      <c r="D24" t="str">
+        <v/>
+      </c>
+      <c r="E24" t="str">
+        <v/>
+      </c>
+      <c r="F24" t="str">
+        <v/>
+      </c>
+      <c r="G24" t="str">
+        <v/>
+      </c>
+      <c r="H24" t="str">
+        <v/>
+      </c>
+      <c r="I24" t="str">
+        <v/>
+      </c>
+      <c r="J24" t="str">
+        <v/>
+      </c>
+      <c r="K24" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>41 18-07-2022</v>
+      </c>
+      <c r="B25" t="str">
+        <v>CrNo: Ch No: Mitul Enterprises</v>
+      </c>
+      <c r="C25" t="str">
+        <v/>
+      </c>
+      <c r="D25" t="str">
+        <v>10,400.00 8443-00-108-00-00</v>
+      </c>
+      <c r="E25" t="str">
+        <v/>
+      </c>
+      <c r="F25" t="str">
+        <v/>
+      </c>
+      <c r="G25" t="str">
+        <v/>
+      </c>
+      <c r="H25" t="str">
+        <v/>
+      </c>
+      <c r="I25" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="J25" t="str">
+        <v/>
+      </c>
+      <c r="K25" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v/>
+      </c>
+      <c r="B26" t="str">
+        <v>3193823</v>
+      </c>
+      <c r="C26" t="str">
+        <v/>
+      </c>
+      <c r="D26" t="str">
+        <v/>
+      </c>
+      <c r="E26" t="str">
+        <v/>
+      </c>
+      <c r="F26" t="str">
+        <v/>
+      </c>
+      <c r="G26" t="str">
+        <v/>
+      </c>
+      <c r="H26" t="str">
+        <v/>
+      </c>
+      <c r="I26" t="str">
+        <v/>
+      </c>
+      <c r="J26" t="str">
+        <v/>
+      </c>
+      <c r="K26" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>42</v>
+      </c>
+      <c r="B27" t="str">
+        <v/>
+      </c>
+      <c r="C27" t="str">
+        <v/>
+      </c>
+      <c r="D27" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="E27" t="str">
+        <v>19-07-2022</v>
+      </c>
+      <c r="F27" t="str">
+        <v>Tvno: 20033 Neha Electric ,</v>
+      </c>
+      <c r="G27" t="str">
+        <v/>
+      </c>
+      <c r="H27" t="str">
+        <v/>
+      </c>
+      <c r="I27" t="str">
+        <v>7674.00</v>
+      </c>
+      <c r="J27" t="str">
+        <v>7,674</v>
+      </c>
+      <c r="K27" t="str">
+        <v>8443-00-108-00-00</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v/>
+      </c>
+      <c r="B28" t="str">
+        <v/>
+      </c>
+      <c r="C28" t="str">
+        <v/>
+      </c>
+      <c r="D28" t="str">
+        <v/>
+      </c>
+      <c r="E28" t="str">
+        <v/>
+      </c>
+      <c r="F28" t="str">
+        <v>Paymanager Bill No:</v>
+      </c>
+      <c r="G28" t="str">
+        <v/>
+      </c>
+      <c r="H28" t="str">
+        <v/>
+      </c>
+      <c r="I28" t="str">
+        <v/>
+      </c>
+      <c r="J28" t="str">
+        <v/>
+      </c>
+      <c r="K28" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v/>
+      </c>
+      <c r="B29" t="str">
+        <v/>
+      </c>
+      <c r="C29" t="str">
+        <v/>
+      </c>
+      <c r="D29" t="str">
+        <v/>
+      </c>
+      <c r="E29" t="str">
+        <v/>
+      </c>
+      <c r="F29" t="str">
+        <v>40540550, Bill Type:</v>
+      </c>
+      <c r="G29" t="str">
+        <v/>
+      </c>
+      <c r="H29" t="str">
+        <v/>
+      </c>
+      <c r="I29" t="str">
+        <v/>
+      </c>
+      <c r="J29" t="str">
+        <v/>
+      </c>
+      <c r="K29" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v/>
+      </c>
+      <c r="B30" t="str">
+        <v/>
+      </c>
+      <c r="C30" t="str">
+        <v/>
+      </c>
+      <c r="D30" t="str">
+        <v/>
+      </c>
+      <c r="E30" t="str">
+        <v/>
+      </c>
+      <c r="F30" t="str">
+        <v>Deposit Refund</v>
+      </c>
+      <c r="G30" t="str">
+        <v/>
+      </c>
+      <c r="H30" t="str">
+        <v/>
+      </c>
+      <c r="I30" t="str">
+        <v/>
+      </c>
+      <c r="J30" t="str">
+        <v/>
+      </c>
+      <c r="K30" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>43</v>
+      </c>
+      <c r="B31" t="str">
+        <v/>
+      </c>
+      <c r="C31" t="str">
+        <v/>
+      </c>
+      <c r="D31" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="E31" t="str">
+        <v>19-07-2022</v>
+      </c>
+      <c r="F31" t="str">
+        <v>Tvno: 20034 Shubham Electricals</v>
+      </c>
+      <c r="G31" t="str">
+        <v/>
+      </c>
+      <c r="H31" t="str">
+        <v/>
+      </c>
+      <c r="I31" t="str">
+        <v>20000.00</v>
+      </c>
+      <c r="J31" t="str">
+        <v>20,000</v>
+      </c>
+      <c r="K31" t="str">
+        <v>8443-00-108-00-00</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v/>
+      </c>
+      <c r="B32" t="str">
+        <v/>
+      </c>
+      <c r="C32" t="str">
+        <v/>
+      </c>
+      <c r="D32" t="str">
+        <v/>
+      </c>
+      <c r="E32" t="str">
+        <v/>
+      </c>
+      <c r="F32" t="str">
+        <v>and Maintenance ,</v>
+      </c>
+      <c r="G32" t="str">
+        <v/>
+      </c>
+      <c r="H32" t="str">
+        <v/>
+      </c>
+      <c r="I32" t="str">
+        <v/>
+      </c>
+      <c r="J32" t="str">
+        <v/>
+      </c>
+      <c r="K32" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v/>
+      </c>
+      <c r="B33" t="str">
+        <v/>
+      </c>
+      <c r="C33" t="str">
+        <v/>
+      </c>
+      <c r="D33" t="str">
+        <v/>
+      </c>
+      <c r="E33" t="str">
+        <v/>
+      </c>
+      <c r="F33" t="str">
+        <v>Paymanager Bill No:</v>
+      </c>
+      <c r="G33" t="str">
+        <v/>
+      </c>
+      <c r="H33" t="str">
+        <v/>
+      </c>
+      <c r="I33" t="str">
+        <v/>
+      </c>
+      <c r="J33" t="str">
+        <v/>
+      </c>
+      <c r="K33" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v/>
+      </c>
+      <c r="B34" t="str">
+        <v/>
+      </c>
+      <c r="C34" t="str">
+        <v/>
+      </c>
+      <c r="D34" t="str">
+        <v/>
+      </c>
+      <c r="E34" t="str">
+        <v/>
+      </c>
+      <c r="F34" t="str">
+        <v>40540552, Bill Type:</v>
+      </c>
+      <c r="G34" t="str">
+        <v/>
+      </c>
+      <c r="H34" t="str">
+        <v/>
+      </c>
+      <c r="I34" t="str">
+        <v/>
+      </c>
+      <c r="J34" t="str">
+        <v/>
+      </c>
+      <c r="K34" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v/>
+      </c>
+      <c r="B35" t="str">
+        <v/>
+      </c>
+      <c r="C35" t="str">
+        <v/>
+      </c>
+      <c r="D35" t="str">
+        <v/>
+      </c>
+      <c r="E35" t="str">
+        <v/>
+      </c>
+      <c r="F35" t="str">
+        <v>Deposit Refund</v>
+      </c>
+      <c r="G35" t="str">
+        <v/>
+      </c>
+      <c r="H35" t="str">
+        <v/>
+      </c>
+      <c r="I35" t="str">
+        <v/>
+      </c>
+      <c r="J35" t="str">
+        <v/>
+      </c>
+      <c r="K35" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>44 20-07-2022</v>
+      </c>
+      <c r="B36" t="str">
+        <v>TVNo: 20257 Gupta Electricals</v>
+      </c>
+      <c r="C36" t="str">
+        <v/>
+      </c>
+      <c r="D36" t="str">
+        <v>13,316.00 4993: SD2, 3329: I-Tax,</v>
+      </c>
+      <c r="E36" t="str">
+        <v>20-07-2022</v>
+      </c>
+      <c r="F36" t="str">
+        <v>Tvno: 20257 Gupta Electricals</v>
+      </c>
+      <c r="G36" t="str">
+        <v/>
+      </c>
+      <c r="H36" t="str">
+        <v>13,316</v>
+      </c>
+      <c r="I36" t="str">
+        <v>153124.00</v>
+      </c>
+      <c r="J36" t="str">
+        <v>1,66,440</v>
+      </c>
+      <c r="K36" t="str">
+        <v>8443-00-108-00-00</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v/>
+      </c>
+      <c r="B37" t="str">
+        <v>(AgreeMentNo 43/2021-</v>
+      </c>
+      <c r="C37" t="str">
+        <v/>
+      </c>
+      <c r="D37" t="str">
+        <v>3330: GSTIN Deduction,</v>
+      </c>
+      <c r="E37" t="str">
+        <v/>
+      </c>
+      <c r="F37" t="str">
+        <v>(Wo.No.:878 , Wo.</v>
+      </c>
+      <c r="G37" t="str">
+        <v/>
+      </c>
+      <c r="H37" t="str">
+        <v/>
+      </c>
+      <c r="I37" t="str">
+        <v/>
+      </c>
+      <c r="J37" t="str">
+        <v/>
+      </c>
+      <c r="K37" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v/>
+      </c>
+      <c r="B38" t="str">
+        <v>22, E/f in Govt College</v>
+      </c>
+      <c r="C38" t="str">
+        <v/>
+      </c>
+      <c r="D38" t="str">
+        <v>1664: Labour-Welfare,</v>
+      </c>
+      <c r="E38" t="str">
+        <v/>
+      </c>
+      <c r="F38" t="str">
+        <v>Date:01/12/2021,</v>
+      </c>
+      <c r="G38" t="str">
+        <v/>
+      </c>
+      <c r="H38" t="str">
+        <v/>
+      </c>
+      <c r="I38" t="str">
+        <v/>
+      </c>
+      <c r="J38" t="str">
+        <v/>
+      </c>
+      <c r="K38" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v/>
+      </c>
+      <c r="B39" t="str">
+        <v>Building Railmagra</v>
+      </c>
+      <c r="C39" t="str">
+        <v/>
+      </c>
+      <c r="D39" t="str">
+        <v/>
+      </c>
+      <c r="E39" t="str">
+        <v/>
+      </c>
+      <c r="F39" t="str">
+        <v>AgreeMentNo 43/2021-</v>
+      </c>
+      <c r="G39" t="str">
+        <v/>
+      </c>
+      <c r="H39" t="str">
+        <v/>
+      </c>
+      <c r="I39" t="str">
+        <v/>
+      </c>
+      <c r="J39" t="str">
+        <v/>
+      </c>
+      <c r="K39" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v/>
+      </c>
+      <c r="B40" t="str">
+        <v>Rajsamand)</v>
+      </c>
+      <c r="C40" t="str">
+        <v/>
+      </c>
+      <c r="D40" t="str">
+        <v/>
+      </c>
+      <c r="E40" t="str">
+        <v/>
+      </c>
+      <c r="F40" t="str">
+        <v>22, E/f in Govt College</v>
+      </c>
+      <c r="G40" t="str">
+        <v/>
+      </c>
+      <c r="H40" t="str">
+        <v/>
+      </c>
+      <c r="I40" t="str">
+        <v/>
+      </c>
+      <c r="J40" t="str">
+        <v/>
+      </c>
+      <c r="K40" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v/>
+      </c>
+      <c r="B41" t="str">
+        <v/>
+      </c>
+      <c r="C41" t="str">
+        <v/>
+      </c>
+      <c r="D41" t="str">
+        <v/>
+      </c>
+      <c r="E41" t="str">
+        <v/>
+      </c>
+      <c r="F41" t="str">
+        <v>Building Railmagra</v>
+      </c>
+      <c r="G41" t="str">
+        <v/>
+      </c>
+      <c r="H41" t="str">
+        <v/>
+      </c>
+      <c r="I41" t="str">
+        <v/>
+      </c>
+      <c r="J41" t="str">
+        <v/>
+      </c>
+      <c r="K41" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v/>
+      </c>
+      <c r="B42" t="str">
+        <v/>
+      </c>
+      <c r="C42" t="str">
+        <v/>
+      </c>
+      <c r="D42" t="str">
+        <v/>
+      </c>
+      <c r="E42" t="str">
+        <v/>
+      </c>
+      <c r="F42" t="str">
+        <v>Rajsamand) ,</v>
+      </c>
+      <c r="G42" t="str">
+        <v/>
+      </c>
+      <c r="H42" t="str">
+        <v/>
+      </c>
+      <c r="I42" t="str">
+        <v/>
+      </c>
+      <c r="J42" t="str">
+        <v/>
+      </c>
+      <c r="K42" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v/>
+      </c>
+      <c r="B43" t="str">
+        <v/>
+      </c>
+      <c r="C43" t="str">
+        <v/>
+      </c>
+      <c r="D43" t="str">
+        <v/>
+      </c>
+      <c r="E43" t="str">
+        <v/>
+      </c>
+      <c r="F43" t="str">
+        <v>Paymanager Bill No:</v>
+      </c>
+      <c r="G43" t="str">
+        <v/>
+      </c>
+      <c r="H43" t="str">
+        <v/>
+      </c>
+      <c r="I43" t="str">
+        <v/>
+      </c>
+      <c r="J43" t="str">
+        <v/>
+      </c>
+      <c r="K43" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v/>
+      </c>
+      <c r="B44" t="str">
+        <v/>
+      </c>
+      <c r="C44" t="str">
+        <v/>
+      </c>
+      <c r="D44" t="str">
+        <v/>
+      </c>
+      <c r="E44" t="str">
+        <v/>
+      </c>
+      <c r="F44" t="str">
+        <v>40456292, Bill Type:</v>
+      </c>
+      <c r="G44" t="str">
+        <v/>
+      </c>
+      <c r="H44" t="str">
+        <v/>
+      </c>
+      <c r="I44" t="str">
+        <v/>
+      </c>
+      <c r="J44" t="str">
+        <v/>
+      </c>
+      <c r="K44" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v/>
+      </c>
+      <c r="B45" t="str">
+        <v/>
+      </c>
+      <c r="C45" t="str">
+        <v/>
+      </c>
+      <c r="D45" t="str">
+        <v/>
+      </c>
+      <c r="E45" t="str">
+        <v/>
+      </c>
+      <c r="F45" t="str">
+        <v>Work Order Payments</v>
+      </c>
+      <c r="G45" t="str">
+        <v/>
+      </c>
+      <c r="H45" t="str">
+        <v/>
+      </c>
+      <c r="I45" t="str">
+        <v/>
+      </c>
+      <c r="J45" t="str">
+        <v/>
+      </c>
+      <c r="K45" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v/>
+      </c>
+      <c r="B46" t="str">
+        <v/>
+      </c>
+      <c r="C46" t="str">
+        <v/>
+      </c>
+      <c r="D46" t="str">
+        <v/>
+      </c>
+      <c r="E46" t="str">
+        <v/>
+      </c>
+      <c r="F46" t="str">
+        <v>(1 Running)</v>
+      </c>
+      <c r="G46" t="str">
+        <v/>
+      </c>
+      <c r="H46" t="str">
+        <v/>
+      </c>
+      <c r="I46" t="str">
+        <v/>
+      </c>
+      <c r="J46" t="str">
+        <v/>
+      </c>
+      <c r="K46" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>45</v>
+      </c>
+      <c r="B47" t="str">
+        <v/>
+      </c>
+      <c r="C47" t="str">
+        <v/>
+      </c>
+      <c r="D47" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="E47" t="str">
+        <v>22-07-2022</v>
+      </c>
+      <c r="F47" t="str">
+        <v>Tvno: 20580 Neha Electric ,</v>
+      </c>
+      <c r="G47" t="str">
+        <v/>
+      </c>
+      <c r="H47" t="str">
+        <v/>
+      </c>
+      <c r="I47" t="str">
+        <v>141661.00</v>
+      </c>
+      <c r="J47" t="str">
+        <v>1,41,661</v>
+      </c>
+      <c r="K47" t="str">
+        <v>8443-00-108-00-00</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v/>
+      </c>
+      <c r="B48" t="str">
+        <v/>
+      </c>
+      <c r="C48" t="str">
+        <v/>
+      </c>
+      <c r="D48" t="str">
+        <v/>
+      </c>
+      <c r="E48" t="str">
+        <v/>
+      </c>
+      <c r="F48" t="str">
+        <v>Paymanager Bill No:</v>
+      </c>
+      <c r="G48" t="str">
+        <v/>
+      </c>
+      <c r="H48" t="str">
+        <v/>
+      </c>
+      <c r="I48" t="str">
+        <v/>
+      </c>
+      <c r="J48" t="str">
+        <v/>
+      </c>
+      <c r="K48" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v/>
+      </c>
+      <c r="B49" t="str">
+        <v/>
+      </c>
+      <c r="C49" t="str">
+        <v/>
+      </c>
+      <c r="D49" t="str">
+        <v/>
+      </c>
+      <c r="E49" t="str">
+        <v/>
+      </c>
+      <c r="F49" t="str">
+        <v>40540544, Bill Type:</v>
+      </c>
+      <c r="G49" t="str">
+        <v/>
+      </c>
+      <c r="H49" t="str">
+        <v/>
+      </c>
+      <c r="I49" t="str">
+        <v/>
+      </c>
+      <c r="J49" t="str">
+        <v/>
+      </c>
+      <c r="K49" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v/>
+      </c>
+      <c r="B50" t="str">
+        <v/>
+      </c>
+      <c r="C50" t="str">
+        <v/>
+      </c>
+      <c r="D50" t="str">
+        <v/>
+      </c>
+      <c r="E50" t="str">
+        <v/>
+      </c>
+      <c r="F50" t="str">
+        <v>Deposit Refund</v>
+      </c>
+      <c r="G50" t="str">
+        <v/>
+      </c>
+      <c r="H50" t="str">
+        <v/>
+      </c>
+      <c r="I50" t="str">
+        <v/>
+      </c>
+      <c r="J50" t="str">
+        <v/>
+      </c>
+      <c r="K50" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>46</v>
+      </c>
+      <c r="B51" t="str">
+        <v/>
+      </c>
+      <c r="C51" t="str">
+        <v/>
+      </c>
+      <c r="D51" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="E51" t="str">
+        <v>22-07-2022</v>
+      </c>
+      <c r="F51" t="str">
+        <v>Tvno: 20581 Shubham Electricals</v>
+      </c>
+      <c r="G51" t="str">
+        <v/>
+      </c>
+      <c r="H51" t="str">
+        <v/>
+      </c>
+      <c r="I51" t="str">
+        <v>133718.00</v>
+      </c>
+      <c r="J51" t="str">
+        <v>1,33,718</v>
+      </c>
+      <c r="K51" t="str">
+        <v>8443-00-108-00-00</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v/>
+      </c>
+      <c r="B52" t="str">
+        <v/>
+      </c>
+      <c r="C52" t="str">
+        <v/>
+      </c>
+      <c r="D52" t="str">
+        <v/>
+      </c>
+      <c r="E52" t="str">
+        <v/>
+      </c>
+      <c r="F52" t="str">
+        <v>and Maintenance ,</v>
+      </c>
+      <c r="G52" t="str">
+        <v/>
+      </c>
+      <c r="H52" t="str">
+        <v/>
+      </c>
+      <c r="I52" t="str">
+        <v/>
+      </c>
+      <c r="J52" t="str">
+        <v/>
+      </c>
+      <c r="K52" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v/>
+      </c>
+      <c r="B53" t="str">
+        <v/>
+      </c>
+      <c r="C53" t="str">
+        <v/>
+      </c>
+      <c r="D53" t="str">
+        <v/>
+      </c>
+      <c r="E53" t="str">
+        <v/>
+      </c>
+      <c r="F53" t="str">
+        <v>Paymanager Bill No:</v>
+      </c>
+      <c r="G53" t="str">
+        <v/>
+      </c>
+      <c r="H53" t="str">
+        <v/>
+      </c>
+      <c r="I53" t="str">
+        <v/>
+      </c>
+      <c r="J53" t="str">
+        <v/>
+      </c>
+      <c r="K53" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v/>
+      </c>
+      <c r="B54" t="str">
+        <v/>
+      </c>
+      <c r="C54" t="str">
+        <v/>
+      </c>
+      <c r="D54" t="str">
+        <v/>
+      </c>
+      <c r="E54" t="str">
+        <v/>
+      </c>
+      <c r="F54" t="str">
+        <v>40540559, Bill Type:</v>
+      </c>
+      <c r="G54" t="str">
+        <v/>
+      </c>
+      <c r="H54" t="str">
+        <v/>
+      </c>
+      <c r="I54" t="str">
+        <v/>
+      </c>
+      <c r="J54" t="str">
+        <v/>
+      </c>
+      <c r="K54" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v/>
+      </c>
+      <c r="B55" t="str">
+        <v/>
+      </c>
+      <c r="C55" t="str">
+        <v/>
+      </c>
+      <c r="D55" t="str">
+        <v/>
+      </c>
+      <c r="E55" t="str">
+        <v/>
+      </c>
+      <c r="F55" t="str">
+        <v>Deposit Refund</v>
+      </c>
+      <c r="G55" t="str">
+        <v/>
+      </c>
+      <c r="H55" t="str">
+        <v/>
+      </c>
+      <c r="I55" t="str">
+        <v/>
+      </c>
+      <c r="J55" t="str">
+        <v/>
+      </c>
+      <c r="K55" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>47 27-07-2022</v>
+      </c>
+      <c r="B56" t="str">
+        <v>CrNo: 77 Medical Relief</v>
+      </c>
+      <c r="C56" t="str">
+        <v/>
+      </c>
+      <c r="D56" t="str">
+        <v>4,43,000.00 8443-00-108-00-00</v>
+      </c>
+      <c r="E56" t="str">
+        <v>27-07-2022</v>
+      </c>
+      <c r="F56" t="str">
+        <v>ChlnNo: 3463108 Remittance to Treasury</v>
+      </c>
+      <c r="G56" t="str">
+        <v/>
+      </c>
+      <c r="H56" t="str">
+        <v>4,43,000</v>
+      </c>
+      <c r="I56" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="J56" t="str">
+        <v>4,43,000</v>
+      </c>
+      <c r="K56" t="str">
+        <v>8443-00-108-00-00</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v/>
+      </c>
+      <c r="B57" t="str">
+        <v/>
+      </c>
+      <c r="C57" t="str">
+        <v/>
+      </c>
+      <c r="D57" t="str">
+        <v/>
+      </c>
+      <c r="E57" t="str">
+        <v/>
+      </c>
+      <c r="F57" t="str">
+        <v>GRN:64824399</v>
+      </c>
+      <c r="G57" t="str">
+        <v/>
+      </c>
+      <c r="H57" t="str">
+        <v/>
+      </c>
+      <c r="I57" t="str">
+        <v/>
+      </c>
+      <c r="J57" t="str">
+        <v/>
+      </c>
+      <c r="K57" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>48 27-07-2022</v>
+      </c>
+      <c r="B58" t="str">
+        <v>CrNo: 78 Medical Relief</v>
+      </c>
+      <c r="C58" t="str">
+        <v/>
+      </c>
+      <c r="D58" t="str">
+        <v>12,57,000.00 8443-00-108-00-00</v>
+      </c>
+      <c r="E58" t="str">
+        <v>27-07-2022</v>
+      </c>
+      <c r="F58" t="str">
+        <v>ChlnNo: 3465337 Remittance to Treasury</v>
+      </c>
+      <c r="G58" t="str">
+        <v/>
+      </c>
+      <c r="H58" t="str">
+        <v>12,57,000</v>
+      </c>
+      <c r="I58" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="J58" t="str">
+        <v>12,57,000</v>
+      </c>
+      <c r="K58" t="str">
+        <v>8443-00-108-00-00</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v/>
+      </c>
+      <c r="B59" t="str">
+        <v/>
+      </c>
+      <c r="C59" t="str">
+        <v/>
+      </c>
+      <c r="D59" t="str">
+        <v/>
+      </c>
+      <c r="E59" t="str">
+        <v/>
+      </c>
+      <c r="F59" t="str">
+        <v>GRN:64984236</v>
+      </c>
+      <c r="G59" t="str">
+        <v/>
+      </c>
+      <c r="H59" t="str">
+        <v/>
+      </c>
+      <c r="I59" t="str">
+        <v/>
+      </c>
+      <c r="J59" t="str">
+        <v/>
+      </c>
+      <c r="K59" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>Page 4 of 5</v>
+      </c>
+      <c r="B60" t="str">
+        <v/>
+      </c>
+      <c r="C60" t="str">
+        <v/>
+      </c>
+      <c r="D60" t="str">
+        <v/>
+      </c>
+      <c r="E60" t="str">
+        <v/>
+      </c>
+      <c r="F60" t="str">
+        <v/>
+      </c>
+      <c r="G60" t="str">
+        <v/>
+      </c>
+      <c r="H60" t="str">
+        <v>Courtesy: https://wam.rajasthan.gov.in (Printed on 9/15/2025 5:02:57 PM)</v>
+      </c>
+      <c r="I60" t="str">
+        <v/>
+      </c>
+      <c r="J60" t="str">
+        <v/>
+      </c>
+      <c r="K60" t="str">
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:K60"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <cols>
+    <col min="1" max="1" width="15.83203125" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>PDF to Excel Extraction Summary</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Source File:</v>
+      </c>
+      <c r="B3" t="str">
+        <v>rpwa1-4.pdf</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Extraction Date:</v>
+      </c>
+      <c r="B4" t="str">
+        <v>9/16/2025</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Tables Extracted:</v>
+      </c>
+      <c r="B5" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Table Details:</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Table #</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Rows</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Columns</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Confidence</v>
+      </c>
+      <c r="E8" t="str">
+        <v>Sheet Name</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Table 1</v>
+      </c>
+      <c r="B9" t="str">
+        <v>47</v>
+      </c>
+      <c r="C9" t="str">
+        <v>11</v>
+      </c>
+      <c r="D9" t="str">
+        <v>90%</v>
+      </c>
+      <c r="E9" t="str">
+        <v>Table 1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Table 2</v>
+      </c>
+      <c r="B10" t="str">
+        <v>58</v>
+      </c>
+      <c r="C10" t="str">
+        <v>9</v>
+      </c>
+      <c r="D10" t="str">
+        <v>90%</v>
+      </c>
+      <c r="E10" t="str">
+        <v>Table 2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Table 3</v>
+      </c>
+      <c r="B11" t="str">
+        <v>62</v>
+      </c>
+      <c r="C11" t="str">
+        <v>10</v>
+      </c>
+      <c r="D11" t="str">
+        <v>90%</v>
+      </c>
+      <c r="E11" t="str">
+        <v>Table 3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Table 4</v>
+      </c>
+      <c r="B12" t="str">
+        <v>59</v>
+      </c>
+      <c r="C12" t="str">
+        <v>11</v>
+      </c>
+      <c r="D12" t="str">
+        <v>90%</v>
+      </c>
+      <c r="E12" t="str">
+        <v>Table 4</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:E12"/>
   </ignoredErrors>
 </worksheet>
 </file>